--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997439B-D709-4B02-967C-B0ADB03ED0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9973320-33BE-4F06-BD98-5CACEADBF1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,10 @@
     <t>default 이미지 제작
 로그아웃버튼이랑 탈퇴 버튼
 개인 순위 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 구조 개선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -572,6 +576,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -590,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,12 +661,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,56 +733,8 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1037,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA05A95-13FF-47F0-9CE9-6EAAAB0A7403}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1182,7 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1177,7 +1196,11 @@
       <c r="C7" s="4">
         <v>44037</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="D7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1440,7 +1463,7 @@
   <dimension ref="A1:AL29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:P8"/>
+      <selection activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1451,170 +1474,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="27">
+      <c r="C1" s="37">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26">
+      <c r="L1" s="37"/>
+      <c r="M1" s="36">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26">
+      <c r="R1" s="36"/>
+      <c r="S1" s="36">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26">
+      <c r="T1" s="36"/>
+      <c r="U1" s="36">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26">
+      <c r="V1" s="36"/>
+      <c r="W1" s="36">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26">
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26">
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26">
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="26"/>
+      <c r="AL1" s="36"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C2" s="28">
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34">
         <v>2</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35">
         <v>4</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="20">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35">
         <v>5</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20">
+      <c r="L2" s="35"/>
+      <c r="M2" s="28">
         <v>6</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20">
+      <c r="N2" s="28"/>
+      <c r="O2" s="28">
         <v>7</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28">
         <v>8</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20">
+      <c r="R2" s="28"/>
+      <c r="S2" s="28">
         <v>9</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28">
         <v>10</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20">
+      <c r="V2" s="28"/>
+      <c r="W2" s="28">
         <v>11</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28">
         <v>12</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20">
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28">
         <v>13</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28">
         <v>14</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20">
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28">
         <v>15</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20">
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28">
         <v>16</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20">
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28">
         <v>17</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20">
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28">
         <v>18</v>
       </c>
-      <c r="AL2" s="20"/>
+      <c r="AL2" s="28"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1733,572 +1756,572 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="30"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
     </row>
     <row r="16" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
     </row>
     <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
@@ -2327,355 +2350,697 @@
       <c r="AL17" s="32"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="420">
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC9:AD9"/>
@@ -2700,375 +3065,33 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9973320-33BE-4F06-BD98-5CACEADBF1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF032A3F-A941-4239-A973-291BE320B8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,22 @@
   </si>
   <si>
     <t>서버 구조 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 구조 개선
+runtime Library 3D
+competition Timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerUpdate 방식 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile 사진 랜덤
+순위 저장 수정
+서버 알림/공지사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +336,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -585,6 +601,28 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,74 +705,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1056,11 +1112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA05A95-13FF-47F0-9CE9-6EAAAB0A7403}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
@@ -1069,7 +1125,7 @@
     <col min="6" max="6" width="24" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="33">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="55.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="49.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="33">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1182,11 +1238,11 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1199,10 +1255,10 @@
       <c r="D7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="21"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="49.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1212,8 +1268,17 @@
       <c r="C8" s="2">
         <v>44040</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1289,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1300,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1311,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1322,7 @@
         <v>44052</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1333,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1344,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1355,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1366,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1377,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1388,7 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,118 +1399,118 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3">
       <c r="C39" s="2"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3">
       <c r="C59" s="2"/>
     </row>
   </sheetData>
@@ -1462,184 +1527,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68271B16-8937-4659-8A42-E075B29DA29D}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="38" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="37">
+    <row r="1" spans="1:38" ht="45" customHeight="1">
+      <c r="C1" s="35">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="36">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36">
+      <c r="N1" s="35"/>
+      <c r="O1" s="34">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36">
+      <c r="V1" s="34"/>
+      <c r="W1" s="34">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36">
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36">
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="36"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C2" s="34">
+      <c r="AL1" s="34"/>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="C2" s="36">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36">
         <v>2</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37">
         <v>3</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37">
         <v>4</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37">
         <v>5</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="28">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37">
         <v>6</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28">
+      <c r="N2" s="37"/>
+      <c r="O2" s="25">
         <v>7</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25">
         <v>8</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28">
+      <c r="R2" s="25"/>
+      <c r="S2" s="25">
         <v>9</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25">
         <v>10</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28">
+      <c r="V2" s="25"/>
+      <c r="W2" s="25">
         <v>11</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25">
         <v>12</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25">
         <v>13</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25">
         <v>14</v>
       </c>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25">
         <v>15</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25">
         <v>16</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28">
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25">
         <v>17</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25">
         <v>18</v>
       </c>
-      <c r="AL2" s="28"/>
-    </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL2" s="25"/>
+    </row>
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
@@ -1755,988 +1820,1248 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:38">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="25"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="25"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" s="25"/>
       <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="25"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" s="43"/>
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" s="43"/>
       <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="25"/>
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="25"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="18" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" s="25"/>
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-    </row>
-    <row r="16" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+    </row>
+    <row r="16" spans="1:38" ht="8.25" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-    </row>
-    <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+    </row>
+    <row r="17" spans="1:38" ht="8.25" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" s="25"/>
       <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" s="25"/>
       <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" s="25"/>
       <c r="B20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="25"/>
       <c r="B21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="25"/>
       <c r="B22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" s="25"/>
       <c r="B23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" s="25"/>
       <c r="B24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C27" s="28" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="C27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C28" s="28" t="s">
+    <row r="28" spans="1:38">
+      <c r="C28" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="28" t="s">
+    <row r="29" spans="1:38">
+      <c r="C29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="420">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
+  <mergeCells count="419">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
@@ -2761,337 +3086,76 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
     <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF032A3F-A941-4239-A973-291BE320B8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA7DCA-9798-458E-BDC8-D62C0E1B249C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,25 @@
     <t>profile 사진 랜덤
 순위 저장 수정
 서버 알림/공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항/ 푸쉬 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 프로필 그림 랜덤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competition Timeout 설계
+Player용 dic 설계
+답체크 설계
+깃허브 이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 푸쉬 알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +355,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -601,28 +620,6 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,15 +711,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,65 +792,11 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1112,11 +1118,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA05A95-13FF-47F0-9CE9-6EAAAB0A7403}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
@@ -1125,7 +1131,7 @@
     <col min="6" max="6" width="24" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33">
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="55.5" customHeight="1">
+    <row r="3" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.5">
+    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1238,11 +1244,11 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1256,9 +1262,9 @@
         <v>67</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" ht="49.5">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1288,8 +1294,17 @@
       <c r="C9" s="2">
         <v>44043</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1326,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1337,7 @@
         <v>44052</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1348,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1366,7 +1381,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1392,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1403,7 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,118 +1414,118 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
     </row>
   </sheetData>
@@ -1525,186 +1540,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68271B16-8937-4659-8A42-E075B29DA29D}">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="38" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="35">
+    <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="46">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="34">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="45">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34">
+      <c r="R1" s="45"/>
+      <c r="S1" s="45">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34">
+      <c r="T1" s="45"/>
+      <c r="U1" s="45">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34">
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34">
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34">
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34">
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="34"/>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="C2" s="36">
+      <c r="AL1" s="45"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C2" s="43">
         <v>1</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43">
         <v>2</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44">
         <v>3</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44">
         <v>4</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44">
         <v>5</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44">
         <v>6</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="25">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44">
         <v>7</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="34">
         <v>8</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34">
         <v>9</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34">
         <v>10</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25">
+      <c r="V2" s="34"/>
+      <c r="W2" s="34">
         <v>11</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34">
         <v>12</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34">
         <v>13</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34">
         <v>14</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25">
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34">
         <v>15</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25">
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34">
         <v>16</v>
       </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25">
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34">
         <v>17</v>
       </c>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25">
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34">
         <v>18</v>
       </c>
-      <c r="AL2" s="25"/>
-    </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="AL2" s="34"/>
+    </row>
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
@@ -1820,1199 +1835,1151 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="25"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="25"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
       <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="43" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="43"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="43"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
       <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="25" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="25"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="25"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-    </row>
-    <row r="16" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-    </row>
-    <row r="17" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-    </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="25"/>
-      <c r="B18" s="18" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+    </row>
+    <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+    </row>
+    <row r="18" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-    </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-    </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-    </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="25"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
       <c r="B21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-    </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-    </row>
-    <row r="23" spans="1:38">
-      <c r="A23" s="25"/>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-    </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-    </row>
-    <row r="27" spans="1:38">
-      <c r="C27" s="25" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:38">
-      <c r="C28" s="25" t="s">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:38">
-      <c r="C29" s="25" t="s">
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="419">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+  <mergeCells count="454">
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="AK6:AL6"/>
@@ -3035,127 +3002,294 @@
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="AA24:AB24"/>
     <mergeCell ref="AC24:AD24"/>
     <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="U8:V8"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA7DCA-9798-458E-BDC8-D62C0E1B249C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A7989-7D3C-441C-87BE-0731F96F6585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,11 @@
   </si>
   <si>
     <t>공지사항 푸쉬 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 로그 설계
+직접 Scrolling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,83 +725,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1119,7 +1130,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1255,7 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1262,7 +1273,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="26"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1304,7 +1315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1313,6 +1324,15 @@
       </c>
       <c r="C10" s="3">
         <v>44046</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,7 +1563,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="Q11" sqref="Q11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1554,96 +1574,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="46">
+      <c r="C1" s="42">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="45">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45">
+      <c r="R1" s="42"/>
+      <c r="S1" s="41">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45">
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45">
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45">
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45">
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="45"/>
+      <c r="AL1" s="41"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C2" s="43">
@@ -1674,50 +1694,50 @@
         <v>7</v>
       </c>
       <c r="P2" s="44"/>
-      <c r="Q2" s="34">
+      <c r="Q2" s="44">
         <v>8</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34">
+      <c r="R2" s="44"/>
+      <c r="S2" s="35">
         <v>9</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34">
+      <c r="T2" s="35"/>
+      <c r="U2" s="35">
         <v>10</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35">
         <v>11</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35">
         <v>12</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35">
         <v>13</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35">
         <v>14</v>
       </c>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34">
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35">
         <v>15</v>
       </c>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34">
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35">
         <v>16</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34">
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35">
         <v>17</v>
       </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34">
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35">
         <v>18</v>
       </c>
-      <c r="AL2" s="34"/>
+      <c r="AL2" s="35"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1836,1097 +1856,1324 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
     </row>
     <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="454">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
+  <mergeCells count="453">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
@@ -2951,345 +3198,117 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U21:V21"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A7989-7D3C-441C-87BE-0731F96F6585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF991DC-56A8-4985-B895-EE1FDA463F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,20 @@
   <si>
     <t>플레이어 로그 설계
 직접 Scrolling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 로르 마무리
+스크롤링 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity 로컬 푸쉬 알림
+git-lfs 해결해오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,83 +751,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1130,7 +1162,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1255,7 +1287,7 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1273,7 +1305,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="29"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1315,7 +1347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1325,17 +1357,11 @@
       <c r="C10" s="3">
         <v>44046</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1345,8 +1371,17 @@
       <c r="C11" s="2">
         <v>44049</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1355,6 +1390,12 @@
       </c>
       <c r="C12" s="5">
         <v>44052</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1563,7 +1604,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:R11"/>
+      <selection activeCell="AC14" sqref="AC14:AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1574,170 +1615,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="42">
+      <c r="C1" s="52">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42">
+      <c r="N1" s="52"/>
+      <c r="O1" s="52">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="41">
+      <c r="R1" s="52"/>
+      <c r="S1" s="52">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41">
+      <c r="T1" s="52"/>
+      <c r="U1" s="52">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41">
+      <c r="V1" s="52"/>
+      <c r="W1" s="51">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41">
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41">
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41">
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41">
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="41"/>
+      <c r="AL1" s="51"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C2" s="43">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49">
         <v>2</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44">
+      <c r="F2" s="49"/>
+      <c r="G2" s="50">
         <v>3</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50">
         <v>5</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50">
         <v>6</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50">
         <v>7</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44">
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50">
         <v>8</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="35">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50">
         <v>9</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35">
+      <c r="T2" s="50"/>
+      <c r="U2" s="50">
         <v>10</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35">
+      <c r="V2" s="50"/>
+      <c r="W2" s="45">
         <v>11</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45">
         <v>12</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35">
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45">
         <v>13</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45">
         <v>14</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45">
         <v>15</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45">
         <v>16</v>
       </c>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45">
         <v>17</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45">
         <v>18</v>
       </c>
-      <c r="AL2" s="35"/>
+      <c r="AL2" s="45"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1856,1065 +1897,1370 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="30"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="43"/>
+      <c r="U11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" s="29"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
     </row>
     <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="453">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
+  <mergeCells count="452">
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
@@ -2939,376 +3285,74 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF991DC-56A8-4985-B895-EE1FDA463F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0711D4D-8A7F-4BE0-B3C8-82FF2486A5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,23 @@
   <si>
     <t>Unity 로컬 푸쉬 알림
 git-lfs 해결해오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤링 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME OUT/START 로직 단계 고민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiz 로딩
+대회별 퀴즈 분별 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,49 +774,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,35 +849,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1159,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA05A95-13FF-47F0-9CE9-6EAAAB0A7403}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1194,7 @@
     <col min="6" max="6" width="24" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1231,7 +1251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1271,7 +1291,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1287,11 +1307,11 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1305,9 +1325,9 @@
         <v>67</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1347,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1357,11 +1377,11 @@
       <c r="C10" s="3">
         <v>44046</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-    </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1408,8 +1428,20 @@
       <c r="C13" s="2">
         <v>44055</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1452,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1431,7 +1463,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1636,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14:AD14"/>
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,96 +1647,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="52">
+      <c r="C1" s="48">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="51">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="47">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51">
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51">
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51">
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51">
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="51"/>
+      <c r="AL1" s="47"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C2" s="49">
@@ -1747,38 +1779,38 @@
         <v>10</v>
       </c>
       <c r="V2" s="50"/>
-      <c r="W2" s="45">
+      <c r="W2" s="50">
         <v>11</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="40">
         <v>12</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45">
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40">
         <v>13</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40">
         <v>14</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45">
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40">
         <v>15</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45">
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40">
         <v>16</v>
       </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45">
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40">
         <v>17</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45">
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40">
         <v>18</v>
       </c>
-      <c r="AL2" s="45"/>
+      <c r="AL2" s="40"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1897,609 +1929,613 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="55" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="43" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="43"/>
+      <c r="T11" s="46"/>
       <c r="U11" s="29" t="s">
         <v>76</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
+      <c r="W11" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
     </row>
     <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -2509,431 +2545,780 @@
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
       <c r="S18" s="41"/>
       <c r="T18" s="41"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S26:T26"/>
+  <mergeCells count="450">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A25"/>
     <mergeCell ref="G18:H18"/>
@@ -2958,401 +3343,50 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
     <mergeCell ref="W24:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="S22:T22"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0711D4D-8A7F-4BE0-B3C8-82FF2486A5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62910098-3BFC-4649-A604-BC66E7F8E345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,24 @@
   </si>
   <si>
     <t>알림 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 취합 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤링 코딩
+Dictionary로딩 방식 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 해결
+대회별 퀴즈 분별 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +409,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +484,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -680,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,84 +807,96 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,7 +1220,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1345,7 @@
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="33" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1325,7 +1363,7 @@
         <v>67</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1441,7 +1479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1450,6 +1488,18 @@
       </c>
       <c r="C14" s="4">
         <v>44058</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,7 +1686,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+      <selection activeCell="Y10" sqref="Y10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1647,170 +1697,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="48">
+      <c r="C1" s="56">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48">
+      <c r="T1" s="56"/>
+      <c r="U1" s="56">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48">
+      <c r="V1" s="56"/>
+      <c r="W1" s="56">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="47">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47">
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="55">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47">
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47">
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47">
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47">
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="47"/>
+      <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C2" s="49">
+      <c r="C2" s="53">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53">
         <v>2</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50">
+      <c r="F2" s="53"/>
+      <c r="G2" s="54">
         <v>3</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54">
         <v>4</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54">
         <v>5</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54">
         <v>6</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54">
         <v>7</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54">
         <v>8</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54">
         <v>9</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54">
         <v>10</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54">
         <v>11</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="40">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54">
         <v>12</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="49">
         <v>13</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40">
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49">
         <v>14</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40">
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49">
         <v>15</v>
       </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40">
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49">
         <v>16</v>
       </c>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40">
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49">
         <v>17</v>
       </c>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49">
         <v>18</v>
       </c>
-      <c r="AL2" s="40"/>
+      <c r="AL2" s="49"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1929,1049 +1979,1405 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="52" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="46" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="46" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="46"/>
+      <c r="T11" s="47"/>
       <c r="U11" s="29" t="s">
         <v>76</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="46" t="s">
+      <c r="W11" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
     </row>
     <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="43"/>
       <c r="P17" s="43"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
       <c r="S17" s="43"/>
       <c r="T17" s="43"/>
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
       <c r="W17" s="43"/>
       <c r="X17" s="43"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
       <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="450">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="U17:V18"/>
+  <mergeCells count="448">
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
     <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AG9:AH9"/>
@@ -2996,397 +3402,41 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62910098-3BFC-4649-A604-BC66E7F8E345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57118637-BC0D-44BA-AC32-FDD30ECBC44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>Runtime Library 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진 업로드 다운로드 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -398,6 +394,10 @@
   <si>
     <t>오류 해결
 대회별 퀴즈 분별 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤링 코딩 마감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,49 +812,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,37 +893,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA05A95-13FF-47F0-9CE9-6EAAAB0A7403}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1243,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1263,13 +1269,13 @@
         <v>44022</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,10 +1289,10 @@
         <v>44025</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1300,13 +1306,13 @@
         <v>44028</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,13 +1326,13 @@
         <v>44031</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1340,13 +1346,13 @@
         <v>44034</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1360,10 +1366,10 @@
         <v>44037</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="34"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1376,13 +1382,13 @@
         <v>44040</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1396,13 +1402,13 @@
         <v>44043</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1430,13 +1436,13 @@
         <v>44049</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1450,10 +1456,10 @@
         <v>44052</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1467,16 +1473,16 @@
         <v>44055</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1490,19 +1496,19 @@
         <v>44058</v>
       </c>
       <c r="D14" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,6 +1517,15 @@
       </c>
       <c r="C15" s="2">
         <v>44061</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1686,7 +1701,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:Z10"/>
+      <selection activeCell="Y16" sqref="Y16:Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1697,150 +1712,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="56">
+      <c r="C1" s="54">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56">
+      <c r="N1" s="54"/>
+      <c r="O1" s="54">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56">
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56">
+      <c r="R1" s="54"/>
+      <c r="S1" s="54">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56">
+      <c r="T1" s="54"/>
+      <c r="U1" s="54">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56">
+      <c r="V1" s="54"/>
+      <c r="W1" s="54">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="55">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55">
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55">
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55">
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55">
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="55"/>
+      <c r="AL1" s="53"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C2" s="53">
+      <c r="C2" s="55">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55">
         <v>2</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56">
         <v>3</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56">
         <v>4</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54">
+      <c r="J2" s="56"/>
+      <c r="K2" s="56">
         <v>5</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56">
         <v>6</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56">
         <v>7</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54">
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56">
         <v>8</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56">
         <v>9</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54">
+      <c r="T2" s="56"/>
+      <c r="U2" s="56">
         <v>10</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54">
+      <c r="V2" s="56"/>
+      <c r="W2" s="56">
         <v>11</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56">
         <v>12</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="49">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56">
         <v>13</v>
       </c>
-      <c r="AB2" s="49"/>
+      <c r="AB2" s="56"/>
       <c r="AC2" s="49">
         <v>14</v>
       </c>
@@ -1864,10 +1879,10 @@
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="14">
         <v>44020</v>
@@ -1983,986 +1998,988 @@
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+        <v>49</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
       <c r="B5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="46"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="45"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+        <v>51</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="45"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="49"/>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C7" s="46"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="45"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="49"/>
       <c r="B8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="46"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="45"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="45"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="46"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
       <c r="Q11" s="45"/>
       <c r="R11" s="45"/>
-      <c r="S11" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="T11" s="47"/>
+      <c r="S11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="40"/>
       <c r="U11" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
+      <c r="W11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="45"/>
       <c r="R12" s="45"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
       <c r="B13" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="46"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="45"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
       <c r="B14" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="46"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="49"/>
       <c r="B15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="45"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
       <c r="B16" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="46"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
     </row>
     <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="46"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
       <c r="B20" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="45"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
       <c r="B21" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="46"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="49"/>
       <c r="B22" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="46"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="45"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="49"/>
       <c r="B23" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="46"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
       <c r="B24" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="46"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
       <c r="Q24" s="45"/>
       <c r="R24" s="45"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="46"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="45"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
-      <c r="B26" s="61" t="s">
-        <v>71</v>
+      <c r="B26" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="C26" s="46"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="45"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C29" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
@@ -2971,7 +2988,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C30" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
@@ -2980,7 +2997,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="C31" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
@@ -2988,51 +3005,384 @@
       <c r="G31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="448">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S26:T26"/>
+  <mergeCells count="447">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A25"/>
     <mergeCell ref="G18:H18"/>
@@ -3057,386 +3407,52 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Y13:Z13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57118637-BC0D-44BA-AC32-FDD30ECBC44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE770EC-0170-46F5-ADE7-23F7B15C3ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="방학" sheetId="2" r:id="rId2"/>
+    <sheet name="학기" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +399,72 @@
   </si>
   <si>
     <t>스크롤링 코딩 마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 데이터 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 매니저, 플레이어 매니저 수정
+스크롤링 코딩 마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회별 퀴즈 분별 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤 조각 모음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체 작업 &amp; 오류 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤 자체 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackManager
+Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회별 종료 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 일 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 이름 로드 및 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackManager 오류해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll 영점 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OX답 로드 방식 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객관식 Cancel 및 답</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,11 +472,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="d;@"/>
+    <numFmt numFmtId="180" formatCode="dd"/>
+    <numFmt numFmtId="183" formatCode="m&quot;월&quot;\ d&quot;일&quot;\ ddd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +551,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -496,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +633,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -688,6 +762,72 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,7 +952,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -827,82 +973,127 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,6 +1106,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1225,20 +1421,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA05A95-13FF-47F0-9CE9-6EAAAB0A7403}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="24" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="33">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="55.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1295,7 +1491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1511,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="57" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="33">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1351,11 +1547,11 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1369,9 +1565,9 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="66">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1621,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="33">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1658,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="33">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="33" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1538,8 +1734,17 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1549,8 +1754,11 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1560,8 +1768,17 @@
       <c r="C18" s="2">
         <v>44070</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1571,124 +1788,133 @@
       <c r="C19" s="5">
         <v>44073</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3">
       <c r="C39" s="2"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3">
       <c r="C59" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,186 +1924,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68271B16-8937-4659-8A42-E075B29DA29D}">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16:Z16"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="38" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="54">
+    <row r="1" spans="1:38" ht="45" customHeight="1">
+      <c r="C1" s="62">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54">
+      <c r="J1" s="62"/>
+      <c r="K1" s="62">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54">
+      <c r="N1" s="62"/>
+      <c r="O1" s="62">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54">
+      <c r="R1" s="62"/>
+      <c r="S1" s="62">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54">
+      <c r="V1" s="62"/>
+      <c r="W1" s="62">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="53">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53">
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53">
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="53"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C2" s="55">
+      <c r="AL1" s="62"/>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="C2" s="61">
         <v>1</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61">
         <v>2</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56">
+      <c r="F2" s="61"/>
+      <c r="G2" s="60">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60">
         <v>4</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60">
         <v>5</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60">
         <v>6</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56">
+      <c r="N2" s="60"/>
+      <c r="O2" s="60">
         <v>7</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60">
         <v>8</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56">
+      <c r="R2" s="60"/>
+      <c r="S2" s="60">
         <v>9</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56">
+      <c r="T2" s="60"/>
+      <c r="U2" s="60">
         <v>10</v>
       </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56">
+      <c r="V2" s="60"/>
+      <c r="W2" s="60">
         <v>11</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60">
         <v>12</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56">
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60">
         <v>13</v>
       </c>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="49">
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60">
         <v>14</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60">
         <v>15</v>
       </c>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49">
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60">
         <v>16</v>
       </c>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49">
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60">
         <v>17</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60">
         <v>18</v>
       </c>
-      <c r="AL2" s="49"/>
-    </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL2" s="60"/>
+    </row>
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -1993,1351 +2219,1173 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:38">
+      <c r="A4" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="52"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" s="43"/>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="52"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" s="52"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="52"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="55" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" s="55"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="40" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40" t="s">
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40" t="s">
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" s="55"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="40" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="40"/>
+      <c r="T11" s="43"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="40" t="s">
+      <c r="W11" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="X11" s="43"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="52"/>
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" s="52"/>
+      <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" s="52"/>
+      <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" s="52"/>
+      <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-    </row>
-    <row r="17" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+    </row>
+    <row r="18" spans="1:38" ht="8.25" customHeight="1">
+      <c r="A18" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B18" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="18" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+    </row>
+    <row r="19" spans="1:38" ht="8.25" customHeight="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" s="52"/>
+      <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="52"/>
+      <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="40"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="52"/>
       <c r="B22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" s="52"/>
+      <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" s="52"/>
+      <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" s="52"/>
+      <c r="B25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="35" t="s">
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" s="52"/>
+      <c r="B26" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" s="24"/>
+      <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="49" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="C30" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="49" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="C31" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="49" t="s">
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="C32" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+  <mergeCells count="461">
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="W16:X16"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="W17:X18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="W11:X11"/>
@@ -3360,102 +3408,528 @@
     <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
     <mergeCell ref="AG26:AH26"/>
     <mergeCell ref="AI26:AJ26"/>
     <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
     <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32260C13-9B7A-4E84-85D7-3D9BB705076F}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="7" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="67" customFormat="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="80">
+        <v>44074</v>
+      </c>
+      <c r="D1" s="80">
+        <v>44075</v>
+      </c>
+      <c r="E1" s="80">
+        <v>44076</v>
+      </c>
+      <c r="F1" s="80">
+        <v>44077</v>
+      </c>
+      <c r="G1" s="80">
+        <v>44078</v>
+      </c>
+      <c r="H1" s="78">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="76"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="76"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="77"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="82"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="76"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="76"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="77"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="81"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="70"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="76"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="76"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="76"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE770EC-0170-46F5-ADE7-23F7B15C3ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1B73EF-D8E8-41EA-884D-E315567A5A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,30 @@
   </si>
   <si>
     <t>객관식 Cancel 및 답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 종료 로직 구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 종료 로직 기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주관식 답 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 중복 오류 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Library 타이밍 조절 구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 종료 로직 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,8 +499,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="d;@"/>
-    <numFmt numFmtId="180" formatCode="dd"/>
-    <numFmt numFmtId="183" formatCode="m&quot;월&quot;\ d&quot;일&quot;\ ddd"/>
+    <numFmt numFmtId="178" formatCode="dd"/>
+    <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;\ ddd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -846,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,49 +985,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,61 +1102,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,21 +1121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,7 +1574,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="52" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1565,7 +1592,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1734,13 +1761,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="53" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1754,9 +1781,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -1938,170 +1965,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="62">
+      <c r="C1" s="69">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62">
+      <c r="J1" s="69"/>
+      <c r="K1" s="69">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62">
+      <c r="L1" s="69"/>
+      <c r="M1" s="69">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62">
+      <c r="R1" s="69"/>
+      <c r="S1" s="69">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62">
+      <c r="T1" s="69"/>
+      <c r="U1" s="69">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62">
+      <c r="V1" s="69"/>
+      <c r="W1" s="69">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62">
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62">
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62">
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62">
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62">
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62">
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62">
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="62"/>
+      <c r="AL1" s="69"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="61">
+      <c r="C2" s="71">
         <v>1</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71">
         <v>2</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="60">
+      <c r="F2" s="71"/>
+      <c r="G2" s="70">
         <v>3</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70">
         <v>4</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70">
         <v>5</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70">
         <v>6</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60">
+      <c r="N2" s="70"/>
+      <c r="O2" s="70">
         <v>7</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60">
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70">
         <v>8</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70">
         <v>9</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60">
+      <c r="T2" s="70"/>
+      <c r="U2" s="70">
         <v>10</v>
       </c>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60">
+      <c r="V2" s="70"/>
+      <c r="W2" s="70">
         <v>11</v>
       </c>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60">
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70">
         <v>12</v>
       </c>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70">
         <v>13</v>
       </c>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60">
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70">
         <v>14</v>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60">
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70">
         <v>15</v>
       </c>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60">
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70">
         <v>16</v>
       </c>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60">
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70">
         <v>17</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60">
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70">
         <v>18</v>
       </c>
-      <c r="AL2" s="60"/>
+      <c r="AL2" s="70"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2220,362 +2247,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="63" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="52"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="43" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43" t="s">
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43" t="s">
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="43"/>
+      <c r="AL5" s="58"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="52"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="52"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="52"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="76" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="55"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="43" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43" t="s">
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43" t="s">
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="55"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="43"/>
+      <c r="T11" s="58"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="43" t="s">
+      <c r="W11" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2584,720 +2611,1129 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="43" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="52"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="52"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="52"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="55"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="52"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="52"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="52"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="52"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="52"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="52"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="52"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="52"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="U26:V26"/>
@@ -3322,429 +3758,20 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="AA18:AB19"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3757,171 +3784,188 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="67" customFormat="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="79" t="s">
+    <row r="1" spans="1:8" s="38" customFormat="1">
+      <c r="A1" s="43"/>
+      <c r="B1" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="80">
+      <c r="C1" s="48">
         <v>44074</v>
       </c>
-      <c r="D1" s="80">
+      <c r="D1" s="48">
         <v>44075</v>
       </c>
-      <c r="E1" s="80">
+      <c r="E1" s="48">
         <v>44076</v>
       </c>
-      <c r="F1" s="80">
+      <c r="F1" s="48">
         <v>44077</v>
       </c>
-      <c r="G1" s="80">
+      <c r="G1" s="48">
         <v>44078</v>
       </c>
-      <c r="H1" s="78">
+      <c r="H1" s="46">
         <v>44079</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="76"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="76"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="77"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="76"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="76"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="77"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="49"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="76"/>
+      <c r="A14" s="82"/>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="76"/>
+      <c r="A15" s="82"/>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="76"/>
+      <c r="A16" s="82"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="69"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3931,5 +3975,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1B73EF-D8E8-41EA-884D-E315567A5A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8AC803-3856-4AF1-9416-C6324076EF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,45 @@
   </si>
   <si>
     <t>대회 종료 로직 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤 버튼 프리팹 맞춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerLog Class
+Scroll 처리 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 구현
+AR 이미지 판단 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 팝업 마무리
+UI 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈 삭제 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 로그 구상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,11 +535,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="d;@"/>
     <numFmt numFmtId="178" formatCode="dd"/>
-    <numFmt numFmtId="179" formatCode="m&quot;월&quot;\ d&quot;일&quot;\ ddd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -870,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,9 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,6 +1066,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,6 +1169,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1574,7 +1636,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="55" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1592,7 +1654,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="53"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1761,13 +1823,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="56" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1781,9 +1843,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -1965,170 +2027,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="69">
+      <c r="C1" s="72">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69">
+      <c r="N1" s="72"/>
+      <c r="O1" s="72">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69">
+      <c r="R1" s="72"/>
+      <c r="S1" s="72">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69">
+      <c r="T1" s="72"/>
+      <c r="U1" s="72">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69">
+      <c r="V1" s="72"/>
+      <c r="W1" s="72">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69">
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69">
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69">
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69">
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69">
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69">
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69">
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="69"/>
+      <c r="AL1" s="72"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="71">
+      <c r="C2" s="74">
         <v>1</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74">
         <v>2</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="70">
+      <c r="F2" s="74"/>
+      <c r="G2" s="73">
         <v>3</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73">
         <v>4</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73">
         <v>5</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73">
         <v>6</v>
       </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70">
+      <c r="N2" s="73"/>
+      <c r="O2" s="73">
         <v>7</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70">
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73">
         <v>8</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73">
         <v>9</v>
       </c>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73">
         <v>10</v>
       </c>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70">
+      <c r="V2" s="73"/>
+      <c r="W2" s="73">
         <v>11</v>
       </c>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70">
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73">
         <v>12</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70">
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73">
         <v>13</v>
       </c>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70">
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73">
         <v>14</v>
       </c>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70">
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73">
         <v>15</v>
       </c>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70">
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73">
         <v>16</v>
       </c>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73">
         <v>17</v>
       </c>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70">
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73">
         <v>18</v>
       </c>
-      <c r="AL2" s="70"/>
+      <c r="AL2" s="73"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2247,362 +2309,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="63"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="58" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58" t="s">
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58" t="s">
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="58"/>
+      <c r="AL5" s="61"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="63"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="63"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="63"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="79" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="76"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="58" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58" t="s">
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58" t="s">
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="76"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="58" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="58"/>
+      <c r="T11" s="61"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="58" t="s">
+      <c r="W11" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2611,701 +2673,701 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="58" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="63"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="63"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="55"/>
-      <c r="AI15" s="55"/>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="58"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="63"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="55"/>
-      <c r="AI16" s="55"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="63"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="67"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="63"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="63"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="63"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="63"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58"/>
+      <c r="AL23" s="58"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="63"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="58"/>
+      <c r="AL24" s="58"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="63"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="58"/>
+      <c r="AL25" s="58"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="63"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="58"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="58"/>
+      <c r="AL27" s="58"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
@@ -3781,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32260C13-9B7A-4E84-85D7-3D9BB705076F}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3793,33 +3855,53 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1">
+    <row r="1" spans="1:14" s="38" customFormat="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="47">
         <v>44074</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="47">
         <v>44075</v>
       </c>
-      <c r="E1" s="48">
+      <c r="E1" s="47">
         <v>44076</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="47">
         <v>44077</v>
       </c>
-      <c r="G1" s="48">
+      <c r="G1" s="47">
         <v>44078</v>
       </c>
-      <c r="H1" s="46">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="47">
+        <v>44081</v>
+      </c>
+      <c r="K1" s="47">
+        <v>44082</v>
+      </c>
+      <c r="L1" s="47">
+        <v>44083</v>
+      </c>
+      <c r="M1" s="47">
+        <v>44084</v>
+      </c>
+      <c r="N1" s="47">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
@@ -3831,9 +3913,14 @@
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="81" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A3" s="84" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -3844,9 +3931,13 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="82"/>
+      <c r="H3" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="85"/>
       <c r="B4" s="41" t="s">
         <v>107</v>
       </c>
@@ -3854,124 +3945,183 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="82"/>
-      <c r="B5" s="41"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="85"/>
+      <c r="B5" s="50" t="s">
+        <v>110</v>
+      </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="83"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="86"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="88"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="50"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="82" t="s">
+      <c r="C7" s="49"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="85" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="82"/>
+      <c r="H8" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="85"/>
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
-      <c r="E9" s="50"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="82"/>
-      <c r="B10" s="51" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="85"/>
+      <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="50"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="83"/>
-      <c r="B11" s="42"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="86"/>
+      <c r="B11" s="42" t="s">
+        <v>109</v>
+      </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="53"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="49"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="82" t="s">
+      <c r="C12" s="48"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="85" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="82"/>
+      <c r="D13" s="48"/>
+      <c r="H13" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="85"/>
       <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="49"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="82"/>
+      <c r="E14" s="48"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="85"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="82"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="85"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H13:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8AC803-3856-4AF1-9416-C6324076EF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B80FBA-2F02-4D46-8D33-B08126793C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="방학" sheetId="2" r:id="rId2"/>
     <sheet name="학기" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">학기!$A$1:$N$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +531,30 @@
   </si>
   <si>
     <t>플레이어 로그 구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI - 구조변경 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 삭제 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징점 찾는 테스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - 구조개선 및 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerContent 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,128 +1089,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1636,7 +1660,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="57" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1654,7 +1678,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="56"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1823,13 +1847,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="58" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1843,9 +1867,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2027,170 +2051,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="72">
+      <c r="C1" s="74">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72">
+      <c r="N1" s="74"/>
+      <c r="O1" s="74">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72">
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72">
+      <c r="R1" s="74"/>
+      <c r="S1" s="74">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72">
+      <c r="T1" s="74"/>
+      <c r="U1" s="74">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72">
+      <c r="V1" s="74"/>
+      <c r="W1" s="74">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72">
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72">
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72">
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72">
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72">
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="72"/>
+      <c r="AL1" s="74"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="74">
+      <c r="C2" s="76">
         <v>1</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74">
+      <c r="D2" s="76"/>
+      <c r="E2" s="76">
         <v>2</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="73">
+      <c r="F2" s="76"/>
+      <c r="G2" s="75">
         <v>3</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75">
         <v>4</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75">
         <v>5</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75">
         <v>6</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73">
+      <c r="N2" s="75"/>
+      <c r="O2" s="75">
         <v>7</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73">
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75">
         <v>8</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73">
+      <c r="R2" s="75"/>
+      <c r="S2" s="75">
         <v>9</v>
       </c>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73">
+      <c r="T2" s="75"/>
+      <c r="U2" s="75">
         <v>10</v>
       </c>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73">
+      <c r="V2" s="75"/>
+      <c r="W2" s="75">
         <v>11</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73">
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75">
         <v>12</v>
       </c>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73">
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75">
         <v>13</v>
       </c>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73">
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75">
         <v>14</v>
       </c>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73">
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75">
         <v>15</v>
       </c>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73">
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75">
         <v>16</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73">
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75">
         <v>17</v>
       </c>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73">
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75">
         <v>18</v>
       </c>
-      <c r="AL2" s="73"/>
+      <c r="AL2" s="75"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2309,362 +2333,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="66"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="61" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61" t="s">
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61" t="s">
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="61"/>
+      <c r="AL5" s="63"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="66"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="66"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="66"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="81" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="79"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="61" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61" t="s">
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61" t="s">
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="79"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="61" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="61"/>
+      <c r="T11" s="63"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="61" t="s">
+      <c r="W11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2673,701 +2697,701 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="61" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="66"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="66"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="66"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="66"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="66"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="66"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="66"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="66"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="66"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="66"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="66"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="58"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="58"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
@@ -3846,7 +3870,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3914,13 +3938,13 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="40"/>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="54" t="s">
         <v>117</v>
       </c>
       <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="86" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -3931,13 +3955,16 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="85"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="41" t="s">
         <v>107</v>
       </c>
@@ -3946,11 +3973,14 @@
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="85"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="50" t="s">
         <v>110</v>
       </c>
@@ -3959,19 +3989,19 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="54"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="86"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
@@ -3987,13 +4017,13 @@
       </c>
       <c r="C7" s="49"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="55" t="s">
         <v>115</v>
       </c>
       <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="87" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -4004,13 +4034,16 @@
       <c r="E8" s="49"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="85"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
@@ -4019,11 +4052,15 @@
       <c r="E9" s="49"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="85"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
@@ -4032,8 +4069,8 @@
       <c r="E10" s="41"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
@@ -4041,7 +4078,7 @@
       <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="86"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="42" t="s">
         <v>109</v>
       </c>
@@ -4049,9 +4086,9 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="90"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -4067,47 +4104,53 @@
       </c>
       <c r="C12" s="48"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="52" t="s">
         <v>116</v>
       </c>
       <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="87" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="85"/>
+      <c r="A14" s="87"/>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="52"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="85"/>
+      <c r="A15" s="87"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="52"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="85"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="52"/>
+      <c r="A16" s="87"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="48"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B80FBA-2F02-4D46-8D33-B08126793C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651ABEC-8517-4FBC-BB32-27E1469D4AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,6 +555,10 @@
   </si>
   <si>
     <t>PlayerContent 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll Interaction 조사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,85 +1117,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,170 +2055,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="74">
+      <c r="C1" s="81">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74">
+      <c r="N1" s="81"/>
+      <c r="O1" s="81">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74">
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74">
+      <c r="R1" s="81"/>
+      <c r="S1" s="81">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74">
+      <c r="T1" s="81"/>
+      <c r="U1" s="81">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74">
+      <c r="V1" s="81"/>
+      <c r="W1" s="81">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74">
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74">
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74">
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74">
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74">
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="74"/>
+      <c r="AL1" s="81"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="76">
+      <c r="C2" s="80">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76">
+      <c r="D2" s="80"/>
+      <c r="E2" s="80">
         <v>2</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="75">
+      <c r="F2" s="80"/>
+      <c r="G2" s="79">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79">
         <v>4</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79">
         <v>5</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75">
+      <c r="L2" s="79"/>
+      <c r="M2" s="79">
         <v>6</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75">
+      <c r="N2" s="79"/>
+      <c r="O2" s="79">
         <v>7</v>
       </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79">
         <v>8</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79">
         <v>9</v>
       </c>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79">
         <v>10</v>
       </c>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75">
+      <c r="V2" s="79"/>
+      <c r="W2" s="79">
         <v>11</v>
       </c>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75">
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79">
         <v>12</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75">
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79">
         <v>13</v>
       </c>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75">
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79">
         <v>14</v>
       </c>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75">
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79">
         <v>15</v>
       </c>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75">
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79">
         <v>16</v>
       </c>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75">
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79">
         <v>17</v>
       </c>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75">
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79">
         <v>18</v>
       </c>
-      <c r="AL2" s="75"/>
+      <c r="AL2" s="79"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2333,362 +2337,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="68"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="63" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63" t="s">
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63" t="s">
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="63"/>
+      <c r="AL5" s="66"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="68"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="68"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="76" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="81"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="63" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63" t="s">
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63" t="s">
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="81"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="63" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="63"/>
+      <c r="T11" s="66"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="63" t="s">
+      <c r="W11" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2697,728 +2701,1121 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="63" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="60"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="60"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="68"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="60"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="59"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="68"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="68"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="68"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
       <c r="Q18" s="64"/>
       <c r="R18" s="64"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
       <c r="AE18" s="64"/>
       <c r="AF18" s="64"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
       <c r="AI18" s="78"/>
       <c r="AJ18" s="78"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
       <c r="Q19" s="65"/>
       <c r="R19" s="65"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
       <c r="AE19" s="65"/>
       <c r="AF19" s="65"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
       <c r="AI19" s="77"/>
       <c r="AJ19" s="77"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="68"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="60"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="68"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="68"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="68"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="60"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="68"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="60"/>
-      <c r="AL24" s="60"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="68"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="68"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I17:J17"/>
@@ -3443,421 +3840,28 @@
     <mergeCell ref="AA18:AB19"/>
     <mergeCell ref="AC17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3870,7 +3874,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3879,7 +3883,7 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3979,7 +3983,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="87"/>
       <c r="B5" s="50" t="s">
         <v>110</v>
@@ -3990,7 +3994,10 @@
       <c r="F5" s="41"/>
       <c r="G5" s="40"/>
       <c r="H5" s="89"/>
-      <c r="I5" s="55"/>
+      <c r="I5" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="88"/>
@@ -4058,6 +4065,7 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="87"/>
@@ -4117,7 +4125,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="76" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="53" t="s">
@@ -4131,11 +4139,12 @@
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="68"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="53" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="87"/>
@@ -4144,12 +4153,12 @@
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="68"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="87"/>
-      <c r="H16" s="68"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="53"/>
     </row>
     <row r="18" spans="3:5">

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651ABEC-8517-4FBC-BB32-27E1469D4AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC669676-2C92-466C-8CE8-32573D761A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="35070" yWindow="-5145" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +559,24 @@
   </si>
   <si>
     <t>Scroll Interaction 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - 오류해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player / PlayerContents
+PlayerLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 수정
+UI 이미지 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,49 +1135,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,31 +1210,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,6 +1236,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1664,7 +1700,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="59" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1682,7 +1718,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="58"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1851,13 +1887,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="60" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1871,9 +1907,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2055,170 +2091,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="81">
+      <c r="C1" s="76">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81">
+      <c r="N1" s="76"/>
+      <c r="O1" s="76">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81">
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81">
+      <c r="V1" s="76"/>
+      <c r="W1" s="76">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81">
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81">
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81">
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81">
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81">
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="81"/>
+      <c r="AL1" s="76"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="80">
+      <c r="C2" s="78">
         <v>1</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78">
         <v>2</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="79">
+      <c r="F2" s="78"/>
+      <c r="G2" s="77">
         <v>3</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77">
         <v>4</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77">
         <v>5</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79">
+      <c r="L2" s="77"/>
+      <c r="M2" s="77">
         <v>6</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79">
+      <c r="N2" s="77"/>
+      <c r="O2" s="77">
         <v>7</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77">
         <v>8</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77">
         <v>9</v>
       </c>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77">
         <v>10</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79">
+      <c r="V2" s="77"/>
+      <c r="W2" s="77">
         <v>11</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79">
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77">
         <v>12</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79">
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77">
         <v>13</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79">
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77">
         <v>14</v>
       </c>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79">
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77">
         <v>15</v>
       </c>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79">
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77">
         <v>16</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79">
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77">
         <v>17</v>
       </c>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79">
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77">
         <v>18</v>
       </c>
-      <c r="AL2" s="79"/>
+      <c r="AL2" s="77"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2337,362 +2373,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
       <c r="AE4" s="61"/>
       <c r="AF4" s="61"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="73"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
       <c r="AE5" s="61"/>
       <c r="AF5" s="61"/>
-      <c r="AG5" s="66" t="s">
+      <c r="AG5" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66" t="s">
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66" t="s">
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="66"/>
+      <c r="AL5" s="65"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="73"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
       <c r="Q6" s="61"/>
       <c r="R6" s="61"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
       <c r="AE6" s="61"/>
       <c r="AF6" s="61"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="73"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="73"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
       <c r="Q8" s="61"/>
       <c r="R8" s="61"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
       <c r="AE8" s="61"/>
       <c r="AF8" s="61"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="83" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="61"/>
       <c r="R9" s="61"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
       <c r="AE9" s="61"/>
       <c r="AF9" s="61"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="59"/>
-      <c r="AL9" s="59"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="76"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
       <c r="Q10" s="61"/>
       <c r="R10" s="61"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="66" t="s">
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66" t="s">
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
       <c r="AE10" s="61"/>
       <c r="AF10" s="61"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="76"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
       <c r="Q11" s="61"/>
       <c r="R11" s="61"/>
-      <c r="S11" s="66" t="s">
+      <c r="S11" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="66"/>
+      <c r="T11" s="65"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="66" t="s">
+      <c r="W11" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
       <c r="AE11" s="61"/>
       <c r="AF11" s="61"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="59"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="62"/>
+      <c r="AL11" s="62"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2701,720 +2737,1129 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
       <c r="Q12" s="61"/>
       <c r="R12" s="61"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="66" t="s">
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="66"/>
+      <c r="AD12" s="65"/>
       <c r="AE12" s="61"/>
       <c r="AF12" s="61"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="62"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
       <c r="Q13" s="61"/>
       <c r="R13" s="61"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
       <c r="AE13" s="61"/>
       <c r="AF13" s="61"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="73"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
       <c r="AE14" s="61"/>
       <c r="AF14" s="61"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="73"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
       <c r="Q15" s="61"/>
       <c r="R15" s="61"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
       <c r="AE15" s="61"/>
       <c r="AF15" s="61"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="73"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
       <c r="AE16" s="61"/>
       <c r="AF16" s="61"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="59"/>
-      <c r="AK16" s="59"/>
-      <c r="AL16" s="59"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="73"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
       <c r="Q17" s="61"/>
       <c r="R17" s="61"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
       <c r="AE17" s="61"/>
       <c r="AF17" s="61"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="62"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="73"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="71"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="73"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
       <c r="Q20" s="61"/>
       <c r="R20" s="61"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
       <c r="AE20" s="61"/>
       <c r="AF20" s="61"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="73"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
       <c r="Q21" s="61"/>
       <c r="R21" s="61"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
       <c r="AE21" s="61"/>
       <c r="AF21" s="61"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="73"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="61"/>
       <c r="R22" s="61"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
       <c r="AE22" s="61"/>
       <c r="AF22" s="61"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="64"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="73"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
       <c r="Q23" s="61"/>
       <c r="R23" s="61"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
       <c r="AE23" s="61"/>
       <c r="AF23" s="61"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="73"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
       <c r="AE24" s="61"/>
       <c r="AF24" s="61"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="73"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
       <c r="Q25" s="61"/>
       <c r="R25" s="61"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
       <c r="AE25" s="61"/>
       <c r="AF25" s="61"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="73"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
       <c r="AE26" s="61"/>
       <c r="AF26" s="61"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
       <c r="AE27" s="61"/>
       <c r="AF27" s="61"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="U26:V26"/>
@@ -3439,429 +3884,20 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="AA18:AB19"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3871,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32260C13-9B7A-4E84-85D7-3D9BB705076F}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3885,9 +3921,12 @@
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="2.625" customWidth="1"/>
+    <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="38" customFormat="1">
+    <row r="1" spans="1:21" s="38" customFormat="1">
       <c r="A1" s="43"/>
       <c r="B1" s="46" t="s">
         <v>97</v>
@@ -3928,8 +3967,29 @@
       <c r="N1" s="47">
         <v>44085</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1">
+      <c r="O1" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="47">
+        <v>44088</v>
+      </c>
+      <c r="R1" s="47">
+        <v>44089</v>
+      </c>
+      <c r="S1" s="47">
+        <v>44090</v>
+      </c>
+      <c r="T1" s="47">
+        <v>44091</v>
+      </c>
+      <c r="U1" s="47">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
@@ -3946,9 +4006,15 @@
         <v>117</v>
       </c>
       <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A3" s="88" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -3959,16 +4025,24 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="91" t="s">
         <v>112</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>121</v>
       </c>
       <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="87"/>
+      <c r="O3" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A4" s="89"/>
       <c r="B4" s="41" t="s">
         <v>107</v>
       </c>
@@ -3977,14 +4051,20 @@
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="89"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="55" t="s">
         <v>123</v>
       </c>
       <c r="L4" s="40"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A5" s="87"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="94"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A5" s="89"/>
       <c r="B5" s="50" t="s">
         <v>110</v>
       </c>
@@ -3993,29 +4073,43 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="89"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="55" t="s">
         <v>124</v>
       </c>
       <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="88"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="93"/>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A6" s="90"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="90"/>
+      <c r="H6" s="92"/>
       <c r="I6" s="56"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1">
+      <c r="O6" s="92"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>43</v>
       </c>
@@ -4028,9 +4122,16 @@
         <v>115</v>
       </c>
       <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="87" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A8" s="89" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -4041,16 +4142,23 @@
       <c r="E8" s="49"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="91" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>119</v>
       </c>
       <c r="K8" s="49"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="87"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A9" s="89"/>
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
@@ -4059,16 +4167,23 @@
       <c r="E9" s="49"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="89"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="55" t="s">
         <v>120</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="87"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="94"/>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A10" s="89"/>
       <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
@@ -4077,16 +4192,23 @@
       <c r="E10" s="41"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="89"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="55"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="88"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A11" s="90"/>
       <c r="B11" s="42" t="s">
         <v>109</v>
       </c>
@@ -4095,15 +4217,22 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="90"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="56"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1">
+      <c r="O11" s="92"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>44</v>
       </c>
@@ -4116,50 +4245,85 @@
         <v>116</v>
       </c>
       <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="87" t="s">
+      <c r="O12" s="45"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A13" s="89" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="83" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="87"/>
+      <c r="O13" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A14" s="89"/>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="73"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="53" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="87"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="94"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A15" s="89"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="87"/>
-      <c r="H16" s="73"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="48"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A16" s="89"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="53"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="58"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="48"/>
@@ -4167,7 +4331,10 @@
       <c r="E18" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="O13:O16"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A8:A11"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC669676-2C92-466C-8CE8-32573D761A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D83441-7B4E-49AD-9236-CB6C7F3DD89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35070" yWindow="-5145" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,26 @@
   <si>
     <t>오류 수정
 UI 이미지 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - 메인 화면 컨셉 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징점 테스팅 업뎃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡쳐 사진 비율 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 디테일 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player, PContents shortinfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,92 +1155,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1230,24 +1268,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1700,7 +1720,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="63" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1718,7 +1738,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="60"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1887,13 +1907,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="64" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1907,9 +1927,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2091,170 +2111,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="76">
+      <c r="C1" s="87">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76">
+      <c r="D1" s="87"/>
+      <c r="E1" s="87">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76">
+      <c r="H1" s="87"/>
+      <c r="I1" s="87">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76">
+      <c r="L1" s="87"/>
+      <c r="M1" s="87">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76">
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76">
+      <c r="R1" s="87"/>
+      <c r="S1" s="87">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76">
+      <c r="T1" s="87"/>
+      <c r="U1" s="87">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76">
+      <c r="V1" s="87"/>
+      <c r="W1" s="87">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76">
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76">
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76">
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76">
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76">
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76">
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76">
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="76"/>
+      <c r="AL1" s="87"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="78">
+      <c r="C2" s="86">
         <v>1</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86">
         <v>2</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="77">
+      <c r="F2" s="86"/>
+      <c r="G2" s="85">
         <v>3</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85">
         <v>4</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85">
         <v>5</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77">
+      <c r="L2" s="85"/>
+      <c r="M2" s="85">
         <v>6</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77">
+      <c r="N2" s="85"/>
+      <c r="O2" s="85">
         <v>7</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85">
         <v>8</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85">
         <v>9</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77">
+      <c r="T2" s="85"/>
+      <c r="U2" s="85">
         <v>10</v>
       </c>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77">
+      <c r="V2" s="85"/>
+      <c r="W2" s="85">
         <v>11</v>
       </c>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77">
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85">
         <v>12</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85">
         <v>13</v>
       </c>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85">
         <v>14</v>
       </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77">
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85">
         <v>15</v>
       </c>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77">
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85">
         <v>16</v>
       </c>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85">
         <v>17</v>
       </c>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77">
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85">
         <v>18</v>
       </c>
-      <c r="AL2" s="77"/>
+      <c r="AL2" s="85"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2373,362 +2393,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="79" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="70"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="65" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65" t="s">
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65" t="s">
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="65"/>
+      <c r="AL5" s="72"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="70"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="70"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="70"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="82" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="83"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="65" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65" t="s">
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65" t="s">
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="83"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="65" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="65"/>
+      <c r="T11" s="72"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="65" t="s">
+      <c r="W11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2737,728 +2757,1121 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="65" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="79" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="70"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="70"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="70"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="70"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="80"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="70"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="70"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="70"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="64"/>
-      <c r="AL22" s="64"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="70"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="70"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="62"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="70"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="70"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I17:J17"/>
@@ -3483,421 +3896,28 @@
     <mergeCell ref="AA18:AB19"/>
     <mergeCell ref="AC17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,7 +3930,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3922,7 +3942,7 @@
     <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="2.625" customWidth="1"/>
     <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.25" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4007,14 +4027,16 @@
       </c>
       <c r="J2" s="40"/>
       <c r="O2" s="40"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
+      <c r="P2" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="94" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -4025,24 +4047,24 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="92" t="s">
         <v>112</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>121</v>
       </c>
       <c r="K3" s="40"/>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="92" t="s">
         <v>127</v>
       </c>
       <c r="P3" s="55"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A4" s="89"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="41" t="s">
         <v>107</v>
       </c>
@@ -4051,20 +4073,20 @@
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="91"/>
+      <c r="H4" s="92"/>
       <c r="I4" s="55" t="s">
         <v>123</v>
       </c>
       <c r="L4" s="40"/>
-      <c r="O4" s="91"/>
+      <c r="O4" s="92"/>
       <c r="P4" s="55"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="94"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="50" t="s">
         <v>110</v>
       </c>
@@ -4073,35 +4095,35 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="55" t="s">
         <v>124</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
-      <c r="O5" s="91"/>
+      <c r="O5" s="92"/>
       <c r="P5" s="55"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="93"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="59"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A6" s="90"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="92"/>
+      <c r="H6" s="93"/>
       <c r="I6" s="56"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="92"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="56"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
@@ -4123,15 +4145,17 @@
       </c>
       <c r="J7" s="49"/>
       <c r="O7" s="39"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
+      <c r="P7" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="95" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -4142,23 +4166,27 @@
       <c r="E8" s="49"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="92" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>119</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
+      <c r="O8" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
@@ -4167,23 +4195,23 @@
       <c r="E9" s="49"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="55" t="s">
         <v>120</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="O9" s="91"/>
+      <c r="O9" s="92"/>
       <c r="P9" s="55"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="94"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="60"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
@@ -4192,14 +4220,14 @@
       <c r="E10" s="41"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="91"/>
+      <c r="H10" s="92"/>
       <c r="I10" s="55"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="91"/>
+      <c r="O10" s="92"/>
       <c r="P10" s="55"/>
       <c r="Q10" s="50"/>
       <c r="R10" s="50"/>
@@ -4208,7 +4236,7 @@
       <c r="U10" s="50"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A11" s="90"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="42" t="s">
         <v>109</v>
       </c>
@@ -4217,20 +4245,20 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="92"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="56"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="92"/>
+      <c r="O11" s="93"/>
       <c r="P11" s="56"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1">
       <c r="A12" s="45" t="s">
@@ -4246,83 +4274,85 @@
       </c>
       <c r="J12" s="48"/>
       <c r="O12" s="45"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
+      <c r="P12" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="95" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="82" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="48"/>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="82" t="s">
         <v>128</v>
       </c>
       <c r="P13" s="58"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A14" s="89"/>
+      <c r="A14" s="95"/>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="70"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="53" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
-      <c r="O14" s="70"/>
+      <c r="O14" s="79"/>
       <c r="P14" s="58"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="94"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A15" s="89"/>
+      <c r="A15" s="95"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="70"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="53" t="s">
         <v>126</v>
       </c>
       <c r="N15" s="48"/>
-      <c r="O15" s="70"/>
+      <c r="O15" s="79"/>
       <c r="P15" s="58"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="H16" s="70"/>
+      <c r="A16" s="95"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="53"/>
-      <c r="O16" s="70"/>
+      <c r="O16" s="79"/>
       <c r="P16" s="58"/>
     </row>
     <row r="18" spans="3:5">

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D83441-7B4E-49AD-9236-CB6C7F3DD89D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7BAB7-19C8-4236-9FD2-4779ABCC0F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,18 @@
   </si>
   <si>
     <t>Player, PContents shortinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료용 기록 처리 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타팅 화면, 썸넬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 스크립트 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,49 +1185,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,31 +1254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2111,170 +2123,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="87">
+      <c r="C1" s="80">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87">
+      <c r="H1" s="80"/>
+      <c r="I1" s="80">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87">
+      <c r="L1" s="80"/>
+      <c r="M1" s="80">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87">
+      <c r="N1" s="80"/>
+      <c r="O1" s="80">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87">
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87">
+      <c r="R1" s="80"/>
+      <c r="S1" s="80">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87">
+      <c r="T1" s="80"/>
+      <c r="U1" s="80">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87">
+      <c r="V1" s="80"/>
+      <c r="W1" s="80">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87">
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87">
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87">
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87">
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87">
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87">
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87">
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="87"/>
+      <c r="AL1" s="80"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="86">
+      <c r="C2" s="82">
         <v>1</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82">
         <v>2</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="85">
+      <c r="F2" s="82"/>
+      <c r="G2" s="81">
         <v>3</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85">
+      <c r="H2" s="81"/>
+      <c r="I2" s="81">
         <v>4</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81">
         <v>5</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85">
+      <c r="L2" s="81"/>
+      <c r="M2" s="81">
         <v>6</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85">
+      <c r="N2" s="81"/>
+      <c r="O2" s="81">
         <v>7</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85">
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81">
         <v>8</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81">
         <v>9</v>
       </c>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85">
+      <c r="T2" s="81"/>
+      <c r="U2" s="81">
         <v>10</v>
       </c>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85">
+      <c r="V2" s="81"/>
+      <c r="W2" s="81">
         <v>11</v>
       </c>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85">
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81">
         <v>12</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85">
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81">
         <v>13</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85">
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81">
         <v>14</v>
       </c>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85">
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81">
         <v>15</v>
       </c>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85">
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81">
         <v>16</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85">
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81">
         <v>17</v>
       </c>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85">
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81">
         <v>18</v>
       </c>
-      <c r="AL2" s="85"/>
+      <c r="AL2" s="81"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2393,362 +2405,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="74" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="79"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="72" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72" t="s">
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72" t="s">
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="72"/>
+      <c r="AL5" s="69"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="79"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="79"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="79"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="87" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="82"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="72" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72" t="s">
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72" t="s">
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="82"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="72" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="72"/>
+      <c r="T11" s="69"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="72" t="s">
+      <c r="W11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2757,720 +2769,1129 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="72" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="74" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="79"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="79"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="79"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="79"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
       <c r="Q18" s="70"/>
       <c r="R18" s="70"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
       <c r="AE18" s="70"/>
       <c r="AF18" s="70"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
       <c r="AI18" s="84"/>
       <c r="AJ18" s="84"/>
-      <c r="AK18" s="68"/>
-      <c r="AL18" s="68"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
       <c r="Q19" s="71"/>
       <c r="R19" s="71"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
       <c r="AI19" s="83"/>
       <c r="AJ19" s="83"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="79"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="79"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="79"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="79"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="79"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="79"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="79"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="U26:V26"/>
@@ -3495,429 +3916,20 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="AA18:AB19"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3930,7 +3942,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4031,7 +4043,7 @@
         <v>133</v>
       </c>
       <c r="Q2" s="40"/>
-      <c r="R2" s="60"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
     </row>
@@ -4057,9 +4069,11 @@
       <c r="O3" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="55"/>
+      <c r="P3" s="55" t="s">
+        <v>134</v>
+      </c>
       <c r="Q3" s="60"/>
-      <c r="R3" s="59"/>
+      <c r="R3" s="40"/>
       <c r="S3" s="60"/>
       <c r="T3" s="60"/>
     </row>
@@ -4203,9 +4217,11 @@
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
       <c r="O9" s="92"/>
-      <c r="P9" s="55"/>
+      <c r="P9" s="55" t="s">
+        <v>136</v>
+      </c>
       <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
+      <c r="R9" s="49"/>
       <c r="S9" s="61"/>
       <c r="T9" s="61"/>
       <c r="U9" s="60"/>
@@ -4291,19 +4307,21 @@
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="87" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="48"/>
-      <c r="O13" s="82" t="s">
+      <c r="O13" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="P13" s="58"/>
+      <c r="P13" s="58" t="s">
+        <v>135</v>
+      </c>
       <c r="Q13" s="60"/>
-      <c r="R13" s="59"/>
+      <c r="R13" s="48"/>
       <c r="S13" s="60"/>
       <c r="T13" s="60"/>
       <c r="U13" s="60"/>
@@ -4314,13 +4332,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="79"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="53" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
-      <c r="O14" s="79"/>
+      <c r="O14" s="74"/>
       <c r="P14" s="58"/>
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
@@ -4335,12 +4353,12 @@
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="79"/>
+      <c r="H15" s="74"/>
       <c r="I15" s="53" t="s">
         <v>126</v>
       </c>
       <c r="N15" s="48"/>
-      <c r="O15" s="79"/>
+      <c r="O15" s="74"/>
       <c r="P15" s="58"/>
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
@@ -4350,9 +4368,9 @@
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1">
       <c r="A16" s="95"/>
-      <c r="H16" s="79"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="53"/>
-      <c r="O16" s="79"/>
+      <c r="O16" s="74"/>
       <c r="P16" s="58"/>
     </row>
     <row r="18" spans="3:5">

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7BAB7-19C8-4236-9FD2-4779ABCC0F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDDD2F8-5295-4649-B5CD-61B6811730E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,11 +604,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스타팅 화면, 썸넬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카메라 스크립트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타팅 화면, 썸넬 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타팅 화면, 썸네일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SavePath 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타팅 화면, 플레이어 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3942,7 +3962,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4074,7 +4094,7 @@
       </c>
       <c r="Q3" s="60"/>
       <c r="R3" s="40"/>
-      <c r="S3" s="60"/>
+      <c r="S3" s="40"/>
       <c r="T3" s="60"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1">
@@ -4093,10 +4113,12 @@
       </c>
       <c r="L4" s="40"/>
       <c r="O4" s="92"/>
-      <c r="P4" s="55"/>
+      <c r="P4" s="55" t="s">
+        <v>138</v>
+      </c>
       <c r="Q4" s="60"/>
       <c r="R4" s="60"/>
-      <c r="S4" s="59"/>
+      <c r="S4" s="40"/>
       <c r="T4" s="60"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1">
@@ -4116,11 +4138,13 @@
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
       <c r="O5" s="92"/>
-      <c r="P5" s="55"/>
+      <c r="P5" s="55" t="s">
+        <v>140</v>
+      </c>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
-      <c r="T5" s="59"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1">
       <c r="A6" s="96"/>
@@ -4218,12 +4242,12 @@
       <c r="M9" s="49"/>
       <c r="O9" s="92"/>
       <c r="P9" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="60"/>
       <c r="R9" s="49"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="60"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1">
@@ -4244,11 +4268,13 @@
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
       <c r="O10" s="92"/>
-      <c r="P10" s="55"/>
+      <c r="P10" s="55" t="s">
+        <v>139</v>
+      </c>
       <c r="Q10" s="50"/>
       <c r="R10" s="50"/>
       <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
+      <c r="T10" s="49"/>
       <c r="U10" s="50"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1">
@@ -4318,7 +4344,7 @@
         <v>128</v>
       </c>
       <c r="P13" s="58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="48"/>
@@ -4339,10 +4365,12 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="O14" s="74"/>
-      <c r="P14" s="58"/>
+      <c r="P14" s="58" t="s">
+        <v>137</v>
+      </c>
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
-      <c r="S14" s="59"/>
+      <c r="S14" s="48"/>
       <c r="T14" s="59"/>
       <c r="U14" s="60"/>
     </row>
@@ -4359,11 +4387,13 @@
       </c>
       <c r="N15" s="48"/>
       <c r="O15" s="74"/>
-      <c r="P15" s="58"/>
+      <c r="P15" s="58" t="s">
+        <v>141</v>
+      </c>
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
+      <c r="T15" s="48"/>
       <c r="U15" s="60"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1">

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDDD2F8-5295-4649-B5CD-61B6811730E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42063E75-B4F8-48B0-9283-107268D8D8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,18 @@
   </si>
   <si>
     <t>스타팅 화면, 플레이어 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백 스페이스 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 대회화면 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveLoad 확장자 클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,91 +1211,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1299,6 +1314,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1752,7 +1770,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1770,7 +1788,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="64"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1939,13 +1957,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="65" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1959,9 +1977,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2143,170 +2161,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="80">
+      <c r="C1" s="88">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80">
+      <c r="H1" s="88"/>
+      <c r="I1" s="88">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80">
+      <c r="J1" s="88"/>
+      <c r="K1" s="88">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80">
+      <c r="N1" s="88"/>
+      <c r="O1" s="88">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80">
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80">
+      <c r="R1" s="88"/>
+      <c r="S1" s="88">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80">
+      <c r="T1" s="88"/>
+      <c r="U1" s="88">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80">
+      <c r="V1" s="88"/>
+      <c r="W1" s="88">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80">
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80">
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80">
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80">
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80">
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80">
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80">
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="80"/>
+      <c r="AL1" s="88"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="82">
+      <c r="C2" s="87">
         <v>1</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87">
         <v>2</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="81">
+      <c r="F2" s="87"/>
+      <c r="G2" s="86">
         <v>3</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81">
+      <c r="H2" s="86"/>
+      <c r="I2" s="86">
         <v>4</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86">
         <v>5</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81">
+      <c r="L2" s="86"/>
+      <c r="M2" s="86">
         <v>6</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81">
+      <c r="N2" s="86"/>
+      <c r="O2" s="86">
         <v>7</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86">
         <v>8</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81">
+      <c r="R2" s="86"/>
+      <c r="S2" s="86">
         <v>9</v>
       </c>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81">
+      <c r="T2" s="86"/>
+      <c r="U2" s="86">
         <v>10</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81">
+      <c r="V2" s="86"/>
+      <c r="W2" s="86">
         <v>11</v>
       </c>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81">
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86">
         <v>12</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81">
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86">
         <v>13</v>
       </c>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86">
         <v>14</v>
       </c>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81">
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86">
         <v>15</v>
       </c>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81">
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86">
         <v>16</v>
       </c>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81">
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86">
         <v>17</v>
       </c>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81">
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86">
         <v>18</v>
       </c>
-      <c r="AL2" s="81"/>
+      <c r="AL2" s="86"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2425,14 +2443,14 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
@@ -2445,8 +2463,8 @@
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="66"/>
       <c r="T4" s="66"/>
       <c r="U4" s="66"/>
@@ -2459,8 +2477,8 @@
       <c r="AB4" s="66"/>
       <c r="AC4" s="66"/>
       <c r="AD4" s="66"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="66"/>
       <c r="AI4" s="66"/>
@@ -2469,14 +2487,14 @@
       <c r="AL4" s="66"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="74"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="66"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
@@ -2487,8 +2505,8 @@
       <c r="N5" s="66"/>
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
       <c r="U5" s="66"/>
@@ -2501,28 +2519,28 @@
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="66"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="69" t="s">
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69" t="s">
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69" t="s">
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="69"/>
+      <c r="AL5" s="73"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="74"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
@@ -2535,8 +2553,8 @@
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
       <c r="U6" s="66"/>
@@ -2549,8 +2567,8 @@
       <c r="AB6" s="66"/>
       <c r="AC6" s="66"/>
       <c r="AD6" s="66"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
       <c r="AG6" s="66"/>
       <c r="AH6" s="66"/>
       <c r="AI6" s="66"/>
@@ -2559,26 +2577,26 @@
       <c r="AL6" s="66"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="74"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
       <c r="N7" s="66"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
       <c r="U7" s="66"/>
@@ -2591,8 +2609,8 @@
       <c r="AB7" s="66"/>
       <c r="AC7" s="66"/>
       <c r="AD7" s="66"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
       <c r="AG7" s="66"/>
       <c r="AH7" s="66"/>
       <c r="AI7" s="66"/>
@@ -2601,11 +2619,11 @@
       <c r="AL7" s="66"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="74"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -2619,8 +2637,8 @@
       <c r="N8" s="66"/>
       <c r="O8" s="66"/>
       <c r="P8" s="66"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
       <c r="U8" s="66"/>
@@ -2633,8 +2651,8 @@
       <c r="AB8" s="66"/>
       <c r="AC8" s="66"/>
       <c r="AD8" s="66"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
       <c r="AG8" s="66"/>
       <c r="AH8" s="66"/>
       <c r="AI8" s="66"/>
@@ -2643,14 +2661,14 @@
       <c r="AL8" s="66"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="83" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="69"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -2663,8 +2681,8 @@
       <c r="N9" s="66"/>
       <c r="O9" s="66"/>
       <c r="P9" s="66"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
       <c r="S9" s="66"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
@@ -2677,8 +2695,8 @@
       <c r="AB9" s="66"/>
       <c r="AC9" s="66"/>
       <c r="AD9" s="66"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
       <c r="AG9" s="66"/>
       <c r="AH9" s="66"/>
       <c r="AI9" s="66"/>
@@ -2687,11 +2705,11 @@
       <c r="AL9" s="66"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="87"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -2705,28 +2723,28 @@
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
       <c r="P10" s="66"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
       <c r="S10" s="66"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
       <c r="V10" s="66"/>
-      <c r="W10" s="69" t="s">
+      <c r="W10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69" t="s">
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69" t="s">
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="69"/>
+      <c r="AB10" s="73"/>
       <c r="AC10" s="66"/>
       <c r="AD10" s="66"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
       <c r="AG10" s="66"/>
       <c r="AH10" s="66"/>
       <c r="AI10" s="66"/>
@@ -2735,11 +2753,11 @@
       <c r="AL10" s="66"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="87"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -2753,28 +2771,28 @@
       <c r="N11" s="66"/>
       <c r="O11" s="66"/>
       <c r="P11" s="66"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="69" t="s">
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="69"/>
+      <c r="T11" s="73"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="69" t="s">
+      <c r="W11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="69"/>
+      <c r="X11" s="73"/>
       <c r="Y11" s="66"/>
       <c r="Z11" s="66"/>
       <c r="AA11" s="66"/>
       <c r="AB11" s="66"/>
       <c r="AC11" s="66"/>
       <c r="AD11" s="66"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
       <c r="AG11" s="66"/>
       <c r="AH11" s="66"/>
       <c r="AI11" s="66"/>
@@ -2789,7 +2807,7 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
       <c r="F12" s="66"/>
@@ -2803,8 +2821,8 @@
       <c r="N12" s="66"/>
       <c r="O12" s="66"/>
       <c r="P12" s="66"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
       <c r="S12" s="66"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
@@ -2815,12 +2833,12 @@
       <c r="Z12" s="66"/>
       <c r="AA12" s="66"/>
       <c r="AB12" s="66"/>
-      <c r="AC12" s="69" t="s">
+      <c r="AC12" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
       <c r="AG12" s="66"/>
       <c r="AH12" s="66"/>
       <c r="AI12" s="66"/>
@@ -2829,14 +2847,14 @@
       <c r="AL12" s="66"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="80" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="68"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
       <c r="G13" s="66"/>
@@ -2849,8 +2867,8 @@
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
       <c r="S13" s="66"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
@@ -2863,8 +2881,8 @@
       <c r="AB13" s="66"/>
       <c r="AC13" s="66"/>
       <c r="AD13" s="66"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="66"/>
       <c r="AI13" s="66"/>
@@ -2873,16 +2891,16 @@
       <c r="AL13" s="66"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="74"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="66"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
@@ -2891,8 +2909,8 @@
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
       <c r="P14" s="66"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
       <c r="S14" s="66"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
@@ -2905,8 +2923,8 @@
       <c r="AB14" s="66"/>
       <c r="AC14" s="66"/>
       <c r="AD14" s="66"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
       <c r="AG14" s="66"/>
       <c r="AH14" s="66"/>
       <c r="AI14" s="66"/>
@@ -2915,11 +2933,11 @@
       <c r="AL14" s="66"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="74"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
@@ -2927,14 +2945,14 @@
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="66"/>
       <c r="P15" s="66"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="66"/>
       <c r="T15" s="66"/>
       <c r="U15" s="66"/>
@@ -2947,8 +2965,8 @@
       <c r="AB15" s="66"/>
       <c r="AC15" s="66"/>
       <c r="AD15" s="66"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
       <c r="AG15" s="66"/>
       <c r="AH15" s="66"/>
       <c r="AI15" s="66"/>
@@ -2957,11 +2975,11 @@
       <c r="AL15" s="66"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="74"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
@@ -2969,14 +2987,14 @@
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="66"/>
       <c r="T16" s="66"/>
       <c r="U16" s="66"/>
@@ -2989,8 +3007,8 @@
       <c r="AB16" s="66"/>
       <c r="AC16" s="66"/>
       <c r="AD16" s="66"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
       <c r="AG16" s="66"/>
       <c r="AH16" s="66"/>
       <c r="AI16" s="66"/>
@@ -2999,26 +3017,26 @@
       <c r="AL16" s="66"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="74"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="66"/>
       <c r="L17" s="66"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="66"/>
       <c r="P17" s="66"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="66"/>
       <c r="T17" s="66"/>
       <c r="U17" s="66"/>
@@ -3031,8 +3049,8 @@
       <c r="AB17" s="66"/>
       <c r="AC17" s="66"/>
       <c r="AD17" s="66"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
       <c r="AG17" s="66"/>
       <c r="AH17" s="66"/>
       <c r="AI17" s="66"/>
@@ -3041,95 +3059,95 @@
       <c r="AL17" s="66"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="83"/>
-      <c r="AJ19" s="83"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="70"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="74"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="66"/>
@@ -3139,12 +3157,12 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="66"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
       <c r="O20" s="66"/>
       <c r="P20" s="66"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="66"/>
       <c r="T20" s="66"/>
       <c r="U20" s="66"/>
@@ -3157,8 +3175,8 @@
       <c r="AB20" s="66"/>
       <c r="AC20" s="66"/>
       <c r="AD20" s="66"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
       <c r="AG20" s="66"/>
       <c r="AH20" s="66"/>
       <c r="AI20" s="66"/>
@@ -3167,16 +3185,16 @@
       <c r="AL20" s="66"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="74"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -3185,8 +3203,8 @@
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
       <c r="P21" s="66"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="66"/>
       <c r="T21" s="66"/>
       <c r="U21" s="66"/>
@@ -3199,8 +3217,8 @@
       <c r="AB21" s="66"/>
       <c r="AC21" s="66"/>
       <c r="AD21" s="66"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
       <c r="AI21" s="66"/>
@@ -3209,11 +3227,11 @@
       <c r="AL21" s="66"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="74"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -3225,37 +3243,37 @@
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
       <c r="S22" s="66"/>
       <c r="T22" s="66"/>
       <c r="U22" s="66"/>
       <c r="V22" s="66"/>
       <c r="W22" s="66"/>
       <c r="X22" s="66"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="68"/>
-      <c r="AL22" s="68"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="67"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="74"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="67"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
@@ -3269,8 +3287,8 @@
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
       <c r="P23" s="66"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
       <c r="S23" s="66"/>
       <c r="T23" s="66"/>
       <c r="U23" s="66"/>
@@ -3283,8 +3301,8 @@
       <c r="AB23" s="66"/>
       <c r="AC23" s="66"/>
       <c r="AD23" s="66"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
       <c r="AG23" s="66"/>
       <c r="AH23" s="66"/>
       <c r="AI23" s="66"/>
@@ -3293,11 +3311,11 @@
       <c r="AL23" s="66"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="74"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
@@ -3311,8 +3329,8 @@
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
       <c r="S24" s="66"/>
       <c r="T24" s="66"/>
       <c r="U24" s="66"/>
@@ -3325,8 +3343,8 @@
       <c r="AB24" s="66"/>
       <c r="AC24" s="66"/>
       <c r="AD24" s="66"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
       <c r="AG24" s="66"/>
       <c r="AH24" s="66"/>
       <c r="AI24" s="66"/>
@@ -3335,26 +3353,26 @@
       <c r="AL24" s="66"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="74"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="67"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
       <c r="K25" s="66"/>
       <c r="L25" s="66"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
       <c r="P25" s="66"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
       <c r="S25" s="66"/>
       <c r="T25" s="66"/>
       <c r="U25" s="66"/>
@@ -3367,8 +3385,8 @@
       <c r="AB25" s="66"/>
       <c r="AC25" s="66"/>
       <c r="AD25" s="66"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
       <c r="AG25" s="66"/>
       <c r="AH25" s="66"/>
       <c r="AI25" s="66"/>
@@ -3377,26 +3395,26 @@
       <c r="AL25" s="66"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="74"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="67"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
       <c r="G26" s="66"/>
       <c r="H26" s="66"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="66"/>
       <c r="N26" s="66"/>
       <c r="O26" s="66"/>
       <c r="P26" s="66"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
       <c r="S26" s="66"/>
       <c r="T26" s="66"/>
       <c r="U26" s="66"/>
@@ -3409,8 +3427,8 @@
       <c r="AB26" s="66"/>
       <c r="AC26" s="66"/>
       <c r="AD26" s="66"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
       <c r="AG26" s="66"/>
       <c r="AH26" s="66"/>
       <c r="AI26" s="66"/>
@@ -3423,36 +3441,36 @@
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
       <c r="AA27" s="66"/>
       <c r="AB27" s="66"/>
       <c r="AC27" s="66"/>
       <c r="AD27" s="66"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="68"/>
       <c r="AG27" s="66"/>
       <c r="AH27" s="66"/>
       <c r="AI27" s="66"/>
@@ -3461,56 +3479,449 @@
       <c r="AL27" s="66"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I17:J17"/>
@@ -3535,421 +3946,28 @@
     <mergeCell ref="AA18:AB19"/>
     <mergeCell ref="AC17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3959,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32260C13-9B7A-4E84-85D7-3D9BB705076F}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3976,9 +3994,10 @@
     <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.25" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="2.625" customWidth="1"/>
+    <col min="22" max="22" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="38" customFormat="1">
+    <row r="1" spans="1:22" s="38" customFormat="1">
       <c r="A1" s="43"/>
       <c r="B1" s="46" t="s">
         <v>97</v>
@@ -4040,8 +4059,11 @@
       <c r="U1" s="47">
         <v>44092</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" customHeight="1">
+      <c r="V1" s="98">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>42</v>
       </c>
@@ -4067,8 +4089,8 @@
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
     </row>
-    <row r="3" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A3" s="95" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -4079,14 +4101,14 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="93" t="s">
         <v>112</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>121</v>
       </c>
       <c r="K3" s="40"/>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="93" t="s">
         <v>127</v>
       </c>
       <c r="P3" s="55" t="s">
@@ -4096,9 +4118,10 @@
       <c r="R3" s="40"/>
       <c r="S3" s="40"/>
       <c r="T3" s="60"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A4" s="95"/>
+      <c r="U3" s="40"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A4" s="96"/>
       <c r="B4" s="41" t="s">
         <v>107</v>
       </c>
@@ -4107,12 +4130,12 @@
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="92"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="55" t="s">
         <v>123</v>
       </c>
       <c r="L4" s="40"/>
-      <c r="O4" s="92"/>
+      <c r="O4" s="93"/>
       <c r="P4" s="55" t="s">
         <v>138</v>
       </c>
@@ -4120,9 +4143,10 @@
       <c r="R4" s="60"/>
       <c r="S4" s="40"/>
       <c r="T4" s="60"/>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A5" s="95"/>
+      <c r="U4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A5" s="96"/>
       <c r="B5" s="50" t="s">
         <v>110</v>
       </c>
@@ -4131,13 +4155,13 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="92"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="55" t="s">
         <v>124</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
-      <c r="O5" s="92"/>
+      <c r="O5" s="93"/>
       <c r="P5" s="55" t="s">
         <v>140</v>
       </c>
@@ -4145,31 +4169,34 @@
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
       <c r="T5" s="40"/>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A6" s="96"/>
+      <c r="U5" s="40"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A6" s="97"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="93"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="56"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="56"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="56" t="s">
+        <v>144</v>
+      </c>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U6" s="63"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>43</v>
       </c>
@@ -4192,8 +4219,8 @@
       <c r="T7" s="60"/>
       <c r="U7" s="60"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A8" s="96" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -4204,14 +4231,14 @@
       <c r="E8" s="49"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="93" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>119</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="O8" s="92" t="s">
+      <c r="O8" s="93" t="s">
         <v>131</v>
       </c>
       <c r="P8" s="55" t="s">
@@ -4223,8 +4250,8 @@
       <c r="T8" s="60"/>
       <c r="U8" s="60"/>
     </row>
-    <row r="9" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A9" s="95"/>
+    <row r="9" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A9" s="96"/>
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
@@ -4233,14 +4260,14 @@
       <c r="E9" s="49"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="92"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="55" t="s">
         <v>120</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="O9" s="92"/>
+      <c r="O9" s="93"/>
       <c r="P9" s="55" t="s">
         <v>135</v>
       </c>
@@ -4250,8 +4277,8 @@
       <c r="T9" s="49"/>
       <c r="U9" s="60"/>
     </row>
-    <row r="10" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A10" s="95"/>
+    <row r="10" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A10" s="96"/>
       <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
@@ -4260,14 +4287,14 @@
       <c r="E10" s="41"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="92"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="55"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="92"/>
+      <c r="O10" s="93"/>
       <c r="P10" s="55" t="s">
         <v>139</v>
       </c>
@@ -4277,8 +4304,8 @@
       <c r="T10" s="49"/>
       <c r="U10" s="50"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A11" s="96"/>
+    <row r="11" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A11" s="97"/>
       <c r="B11" s="42" t="s">
         <v>109</v>
       </c>
@@ -4287,22 +4314,24 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="93"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="56"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="56"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="56" t="s">
+        <v>142</v>
+      </c>
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="S11" s="62"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" customHeight="1">
+      <c r="U11" s="51"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" customHeight="1">
       <c r="A12" s="45" t="s">
         <v>44</v>
       </c>
@@ -4325,22 +4354,22 @@
       <c r="T12" s="60"/>
       <c r="U12" s="60"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A13" s="95" t="s">
+    <row r="13" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A13" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="83" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="48"/>
-      <c r="O13" s="87" t="s">
+      <c r="O13" s="83" t="s">
         <v>128</v>
       </c>
       <c r="P13" s="58" t="s">
@@ -4352,19 +4381,19 @@
       <c r="T13" s="60"/>
       <c r="U13" s="60"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A14" s="95"/>
+    <row r="14" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A14" s="96"/>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="74"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="53" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
-      <c r="O14" s="74"/>
+      <c r="O14" s="80"/>
       <c r="P14" s="58" t="s">
         <v>137</v>
       </c>
@@ -4374,19 +4403,19 @@
       <c r="T14" s="59"/>
       <c r="U14" s="60"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A15" s="95"/>
+    <row r="15" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A15" s="96"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="74"/>
+      <c r="H15" s="80"/>
       <c r="I15" s="53" t="s">
         <v>126</v>
       </c>
       <c r="N15" s="48"/>
-      <c r="O15" s="74"/>
+      <c r="O15" s="80"/>
       <c r="P15" s="58" t="s">
         <v>141</v>
       </c>
@@ -4396,12 +4425,15 @@
       <c r="T15" s="48"/>
       <c r="U15" s="60"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A16" s="95"/>
-      <c r="H16" s="74"/>
+    <row r="16" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A16" s="96"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="53"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="58"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="U16" s="48"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="48"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42063E75-B4F8-48B0-9283-107268D8D8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDA2B47-E8F9-47E9-B109-06E87D31D57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,34 @@
   </si>
   <si>
     <t>SaveLoad 확장자 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack Singleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표자료 내용선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데모 컨텐츠 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택 받으면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경진 대회 전까지 구현 범위 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI, 소리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,55 +1242,73 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,31 +1320,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1314,9 +1345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1770,7 +1798,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1788,7 +1816,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1957,13 +1985,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="66" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1977,9 +2005,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2161,170 +2189,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="88">
+      <c r="C1" s="82">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88">
+      <c r="J1" s="82"/>
+      <c r="K1" s="82">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88">
+      <c r="R1" s="82"/>
+      <c r="S1" s="82">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88">
+      <c r="T1" s="82"/>
+      <c r="U1" s="82">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88">
+      <c r="V1" s="82"/>
+      <c r="W1" s="82">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88">
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88">
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88">
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88">
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88">
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="88"/>
+      <c r="AL1" s="82"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="87">
+      <c r="C2" s="84">
         <v>1</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84">
         <v>2</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="86">
+      <c r="F2" s="84"/>
+      <c r="G2" s="83">
         <v>3</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86">
+      <c r="H2" s="83"/>
+      <c r="I2" s="83">
         <v>4</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83">
         <v>5</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83">
         <v>6</v>
       </c>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86">
+      <c r="N2" s="83"/>
+      <c r="O2" s="83">
         <v>7</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83">
         <v>8</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83">
         <v>9</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86">
+      <c r="T2" s="83"/>
+      <c r="U2" s="83">
         <v>10</v>
       </c>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86">
+      <c r="V2" s="83"/>
+      <c r="W2" s="83">
         <v>11</v>
       </c>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83">
         <v>12</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83">
         <v>13</v>
       </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86">
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83">
         <v>14</v>
       </c>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86">
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83">
         <v>15</v>
       </c>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83">
         <v>16</v>
       </c>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83">
         <v>17</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86">
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83">
         <v>18</v>
       </c>
-      <c r="AL2" s="86"/>
+      <c r="AL2" s="83"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2443,362 +2471,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="80"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="73" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73" t="s">
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73" t="s">
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="73"/>
+      <c r="AL5" s="71"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="80"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="80"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="80"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="68"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="89" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="68"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="83"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="73" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73" t="s">
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73" t="s">
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="68"/>
+      <c r="AL10" s="68"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="83"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="73" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="73"/>
+      <c r="T11" s="71"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="73" t="s">
+      <c r="W11" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2807,720 +2835,1129 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="73" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="76" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="80"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="80"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="80"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="80"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="70"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="80"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="80"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="80"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="70"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="80"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="68"/>
+      <c r="AK23" s="68"/>
+      <c r="AL23" s="68"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="80"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="68"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="68"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="80"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="68"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="80"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="68"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="68"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="68"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="U26:V26"/>
@@ -3545,429 +3982,20 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="AA18:AB19"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3980,7 +4008,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3994,7 +4022,7 @@
     <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.25" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="2.625" customWidth="1"/>
-    <col min="22" max="22" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="38" customFormat="1">
@@ -4059,7 +4087,7 @@
       <c r="U1" s="47">
         <v>44092</v>
       </c>
-      <c r="V1" s="98">
+      <c r="V1" s="64">
         <v>44093</v>
       </c>
     </row>
@@ -4088,9 +4116,12 @@
       <c r="R2" s="40"/>
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
+      <c r="V2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -4101,14 +4132,14 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="94" t="s">
         <v>112</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>121</v>
       </c>
       <c r="K3" s="40"/>
-      <c r="O3" s="93" t="s">
+      <c r="O3" s="94" t="s">
         <v>127</v>
       </c>
       <c r="P3" s="55" t="s">
@@ -4119,9 +4150,12 @@
       <c r="S3" s="40"/>
       <c r="T3" s="60"/>
       <c r="U3" s="40"/>
+      <c r="V3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A4" s="96"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="41" t="s">
         <v>107</v>
       </c>
@@ -4130,12 +4164,12 @@
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="93"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="55" t="s">
         <v>123</v>
       </c>
       <c r="L4" s="40"/>
-      <c r="O4" s="93"/>
+      <c r="O4" s="94"/>
       <c r="P4" s="55" t="s">
         <v>138</v>
       </c>
@@ -4144,9 +4178,12 @@
       <c r="S4" s="40"/>
       <c r="T4" s="60"/>
       <c r="U4" s="40"/>
+      <c r="V4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A5" s="96"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="50" t="s">
         <v>110</v>
       </c>
@@ -4155,13 +4192,13 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="93"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="55" t="s">
         <v>124</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
-      <c r="O5" s="93"/>
+      <c r="O5" s="94"/>
       <c r="P5" s="55" t="s">
         <v>140</v>
       </c>
@@ -4172,21 +4209,21 @@
       <c r="U5" s="40"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A6" s="97"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="94"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="56"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="94"/>
+      <c r="O6" s="95"/>
       <c r="P6" s="56" t="s">
         <v>144</v>
       </c>
@@ -4195,6 +4232,7 @@
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
       <c r="U6" s="63"/>
+      <c r="V6" s="42"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" customHeight="1">
       <c r="A7" s="39" t="s">
@@ -4218,9 +4256,12 @@
       <c r="S7" s="60"/>
       <c r="T7" s="60"/>
       <c r="U7" s="60"/>
+      <c r="V7" s="50" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -4231,14 +4272,14 @@
       <c r="E8" s="49"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="94" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>119</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="O8" s="93" t="s">
+      <c r="O8" s="94" t="s">
         <v>131</v>
       </c>
       <c r="P8" s="55" t="s">
@@ -4249,9 +4290,12 @@
       <c r="S8" s="60"/>
       <c r="T8" s="60"/>
       <c r="U8" s="60"/>
+      <c r="V8" s="50" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
@@ -4260,14 +4304,14 @@
       <c r="E9" s="49"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="93"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="55" t="s">
         <v>120</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="O9" s="93"/>
+      <c r="O9" s="94"/>
       <c r="P9" s="55" t="s">
         <v>135</v>
       </c>
@@ -4278,7 +4322,7 @@
       <c r="U9" s="60"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A10" s="96"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
@@ -4287,14 +4331,14 @@
       <c r="E10" s="41"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="93"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="55"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="93"/>
+      <c r="O10" s="94"/>
       <c r="P10" s="55" t="s">
         <v>139</v>
       </c>
@@ -4305,7 +4349,7 @@
       <c r="U10" s="50"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A11" s="97"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="42" t="s">
         <v>109</v>
       </c>
@@ -4314,14 +4358,14 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="56"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="94"/>
+      <c r="O11" s="95"/>
       <c r="P11" s="56" t="s">
         <v>142</v>
       </c>
@@ -4330,6 +4374,7 @@
       <c r="S11" s="62"/>
       <c r="T11" s="62"/>
       <c r="U11" s="51"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" customHeight="1">
       <c r="A12" s="45" t="s">
@@ -4353,23 +4398,26 @@
       <c r="S12" s="60"/>
       <c r="T12" s="60"/>
       <c r="U12" s="60"/>
+      <c r="V12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="97" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="89" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="48"/>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="89" t="s">
         <v>128</v>
       </c>
       <c r="P13" s="58" t="s">
@@ -4380,20 +4428,23 @@
       <c r="S13" s="60"/>
       <c r="T13" s="60"/>
       <c r="U13" s="60"/>
+      <c r="V13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="97"/>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="80"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="53" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
-      <c r="O14" s="80"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="58" t="s">
         <v>137</v>
       </c>
@@ -4404,18 +4455,18 @@
       <c r="U14" s="60"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A15" s="96"/>
+      <c r="A15" s="97"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="80"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="53" t="s">
         <v>126</v>
       </c>
       <c r="N15" s="48"/>
-      <c r="O15" s="80"/>
+      <c r="O15" s="76"/>
       <c r="P15" s="58" t="s">
         <v>141</v>
       </c>
@@ -4426,10 +4477,10 @@
       <c r="U15" s="60"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A16" s="96"/>
-      <c r="H16" s="80"/>
+      <c r="A16" s="97"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="53"/>
-      <c r="O16" s="80"/>
+      <c r="O16" s="76"/>
       <c r="P16" s="58" t="s">
         <v>143</v>
       </c>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDA2B47-E8F9-47E9-B109-06E87D31D57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D4B39F-AAE7-4889-B503-F9D9EF80A58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +669,49 @@
   </si>
   <si>
     <t>오류 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤 처리
+서버에 사진 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 끝내기
+오류 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackSpace
+폭 크기 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackSpace수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window FTP작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 다운업로드 로직 구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow Focus 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,91 +1288,112 @@
     <xf numFmtId="178" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1337,15 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1798,7 +1853,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="69" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1816,7 +1871,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="66"/>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -1985,13 +2040,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="70" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2005,9 +2060,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2189,170 +2244,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="82">
+      <c r="C1" s="93">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82">
+      <c r="J1" s="93"/>
+      <c r="K1" s="93">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82">
+      <c r="N1" s="93"/>
+      <c r="O1" s="93">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82">
+      <c r="R1" s="93"/>
+      <c r="S1" s="93">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82">
+      <c r="T1" s="93"/>
+      <c r="U1" s="93">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82">
+      <c r="V1" s="93"/>
+      <c r="W1" s="93">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82">
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82">
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82">
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82">
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82">
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82">
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82">
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="82"/>
+      <c r="AL1" s="93"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="84">
+      <c r="C2" s="92">
         <v>1</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92">
         <v>2</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="83">
+      <c r="F2" s="92"/>
+      <c r="G2" s="91">
         <v>3</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83">
+      <c r="H2" s="91"/>
+      <c r="I2" s="91">
         <v>4</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83">
+      <c r="J2" s="91"/>
+      <c r="K2" s="91">
         <v>5</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83">
+      <c r="L2" s="91"/>
+      <c r="M2" s="91">
         <v>6</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91">
         <v>7</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83">
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91">
         <v>8</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83">
+      <c r="R2" s="91"/>
+      <c r="S2" s="91">
         <v>9</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83">
+      <c r="T2" s="91"/>
+      <c r="U2" s="91">
         <v>10</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83">
+      <c r="V2" s="91"/>
+      <c r="W2" s="91">
         <v>11</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83">
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91">
         <v>12</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83">
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91">
         <v>13</v>
       </c>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83">
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91">
         <v>14</v>
       </c>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83">
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91">
         <v>15</v>
       </c>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83">
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91">
         <v>16</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83">
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91">
         <v>17</v>
       </c>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83">
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91">
         <v>18</v>
       </c>
-      <c r="AL2" s="83"/>
+      <c r="AL2" s="91"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2471,362 +2526,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="76"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="71" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71" t="s">
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71" t="s">
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="71"/>
+      <c r="AL5" s="78"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="76"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
-      <c r="AK6" s="68"/>
-      <c r="AL6" s="68"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="76"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="76"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="68"/>
-      <c r="AK8" s="68"/>
-      <c r="AL8" s="68"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="88" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="68"/>
-      <c r="AL9" s="68"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="89"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="71" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71" t="s">
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71" t="s">
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="68"/>
-      <c r="AL10" s="68"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="89"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="71" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="71"/>
+      <c r="T11" s="78"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="71" t="s">
+      <c r="W11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
-      <c r="AK11" s="68"/>
-      <c r="AL11" s="68"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="71"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2835,728 +2890,1121 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="71" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="68"/>
-      <c r="AL12" s="68"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="85" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="76"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
-      <c r="AK14" s="68"/>
-      <c r="AL14" s="68"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="76"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="76"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="76"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="68"/>
-      <c r="AL17" s="68"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="79"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="76"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="76"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="76"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="70"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="76"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="68"/>
-      <c r="AK23" s="68"/>
-      <c r="AL23" s="68"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="71"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="76"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="68"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="68"/>
-      <c r="AL24" s="68"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="71"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="76"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="68"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="68"/>
-      <c r="AK25" s="68"/>
-      <c r="AL25" s="68"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="71"/>
+      <c r="AL25" s="71"/>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="76"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="68"/>
-      <c r="AK26" s="68"/>
-      <c r="AL26" s="68"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="71"/>
+      <c r="AL26" s="71"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="24"/>
       <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="68"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="71"/>
+      <c r="AL27" s="71"/>
     </row>
     <row r="30" spans="1:38">
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:38">
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:38">
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="461">
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC18:AD19"/>
-    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I17:J17"/>
@@ -3581,421 +4029,28 @@
     <mergeCell ref="AA18:AB19"/>
     <mergeCell ref="AC17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AG18:AH19"/>
-    <mergeCell ref="AK18:AL19"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AE18:AF19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4005,10 +4060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32260C13-9B7A-4E84-85D7-3D9BB705076F}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4116,12 +4171,12 @@
       <c r="R2" s="40"/>
       <c r="S2" s="60"/>
       <c r="T2" s="60"/>
-      <c r="V2" t="s">
+      <c r="V2" s="66" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="98" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -4132,14 +4187,14 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="101" t="s">
         <v>112</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>121</v>
       </c>
       <c r="K3" s="40"/>
-      <c r="O3" s="94" t="s">
+      <c r="O3" s="101" t="s">
         <v>127</v>
       </c>
       <c r="P3" s="55" t="s">
@@ -4150,12 +4205,12 @@
       <c r="S3" s="40"/>
       <c r="T3" s="60"/>
       <c r="U3" s="40"/>
-      <c r="V3" t="s">
+      <c r="V3" s="66" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A4" s="97"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="41" t="s">
         <v>107</v>
       </c>
@@ -4164,12 +4219,12 @@
       <c r="E4" s="41"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="94"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="55" t="s">
         <v>123</v>
       </c>
       <c r="L4" s="40"/>
-      <c r="O4" s="94"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="55" t="s">
         <v>138</v>
       </c>
@@ -4178,12 +4233,12 @@
       <c r="S4" s="40"/>
       <c r="T4" s="60"/>
       <c r="U4" s="40"/>
-      <c r="V4" t="s">
+      <c r="V4" s="66" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A5" s="97"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="50" t="s">
         <v>110</v>
       </c>
@@ -4192,13 +4247,13 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="40"/>
-      <c r="H5" s="94"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="55" t="s">
         <v>124</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
-      <c r="O5" s="94"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="55" t="s">
         <v>140</v>
       </c>
@@ -4209,21 +4264,21 @@
       <c r="U5" s="40"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A6" s="98"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="95"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="56"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="95"/>
+      <c r="O6" s="102"/>
       <c r="P6" s="56" t="s">
         <v>144</v>
       </c>
@@ -4256,12 +4311,12 @@
       <c r="S7" s="60"/>
       <c r="T7" s="60"/>
       <c r="U7" s="60"/>
-      <c r="V7" s="50" t="s">
+      <c r="V7" s="67" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="99" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -4272,14 +4327,14 @@
       <c r="E8" s="49"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="101" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>119</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="O8" s="94" t="s">
+      <c r="O8" s="101" t="s">
         <v>131</v>
       </c>
       <c r="P8" s="55" t="s">
@@ -4295,7 +4350,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A9" s="97"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="41" t="s">
         <v>105</v>
       </c>
@@ -4304,14 +4359,14 @@
       <c r="E9" s="49"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="94"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="55" t="s">
         <v>120</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="O9" s="94"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="55" t="s">
         <v>135</v>
       </c>
@@ -4322,7 +4377,7 @@
       <c r="U9" s="60"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A10" s="97"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="50" t="s">
         <v>106</v>
       </c>
@@ -4331,14 +4386,14 @@
       <c r="E10" s="41"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="94"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="55"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="94"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="55" t="s">
         <v>139</v>
       </c>
@@ -4349,7 +4404,7 @@
       <c r="U10" s="50"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="42" t="s">
         <v>109</v>
       </c>
@@ -4358,14 +4413,14 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="95"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="56"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="95"/>
+      <c r="O11" s="102"/>
       <c r="P11" s="56" t="s">
         <v>142</v>
       </c>
@@ -4398,26 +4453,26 @@
       <c r="S12" s="60"/>
       <c r="T12" s="60"/>
       <c r="U12" s="60"/>
-      <c r="V12" t="s">
+      <c r="V12" s="65" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="99" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="88" t="s">
         <v>114</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="48"/>
-      <c r="O13" s="89" t="s">
+      <c r="O13" s="88" t="s">
         <v>128</v>
       </c>
       <c r="P13" s="58" t="s">
@@ -4428,23 +4483,23 @@
       <c r="S13" s="60"/>
       <c r="T13" s="60"/>
       <c r="U13" s="60"/>
-      <c r="V13" t="s">
+      <c r="V13" s="65" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A14" s="97"/>
+      <c r="A14" s="99"/>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="H14" s="76"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="53" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
-      <c r="O14" s="76"/>
+      <c r="O14" s="85"/>
       <c r="P14" s="58" t="s">
         <v>137</v>
       </c>
@@ -4455,18 +4510,18 @@
       <c r="U14" s="60"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A15" s="97"/>
+      <c r="A15" s="99"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="76"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="53" t="s">
         <v>126</v>
       </c>
       <c r="N15" s="48"/>
-      <c r="O15" s="76"/>
+      <c r="O15" s="85"/>
       <c r="P15" s="58" t="s">
         <v>141</v>
       </c>
@@ -4477,22 +4532,205 @@
       <c r="U15" s="60"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="H16" s="76"/>
+      <c r="A16" s="99"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="53"/>
-      <c r="O16" s="76"/>
+      <c r="O16" s="85"/>
       <c r="P16" s="58" t="s">
         <v>143</v>
       </c>
       <c r="U16" s="48"/>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="40"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="43"/>
+      <c r="B17" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="47">
+        <v>44095</v>
+      </c>
+      <c r="D17" s="47">
+        <v>44096</v>
+      </c>
+      <c r="E17" s="47">
+        <v>44097</v>
+      </c>
+      <c r="F17" s="47">
+        <v>44098</v>
+      </c>
+      <c r="G17" s="47">
+        <v>44099</v>
+      </c>
+      <c r="H17" s="64">
+        <v>44100</v>
+      </c>
+      <c r="I17" s="64">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="99"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="99"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="100"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="99"/>
+      <c r="B25" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="99"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="100"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="68"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="99"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="99"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="99"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="O3:O6"/>
     <mergeCell ref="O8:O11"/>
     <mergeCell ref="O13:O16"/>

--- a/FindTreasure 일정표.xlsx
+++ b/FindTreasure 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FindTreasure\project\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D4B39F-AAE7-4889-B503-F9D9EF80A58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74997726-0053-45E2-B41A-BBEF0A6BC590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4526A3F9-C5FF-4A39-88EB-54CFB1BECE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
   <si>
     <t>1차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,7 +711,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blow Focus 기능 구현</t>
+    <t>대회 종료 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀴즈 추가 패널 터치 스크롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 다운업로드 로직 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource루트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save(),Load() 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 로직 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank 과정 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save(),Load() 오류 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 공간 일반화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 빈공간 팝업 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCam 비활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 전 팝업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,103 +1304,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,31 +1421,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,6 +1447,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1853,7 +1914,7 @@
       <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1871,7 +1932,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="70"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
       <c r="A8" s="1" t="s">
@@ -2040,13 +2101,13 @@
       <c r="C16" s="2">
         <v>44064</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="68" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2060,9 +2121,9 @@
       <c r="C17" s="3">
         <v>44067</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
@@ -2244,170 +2305,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1">
-      <c r="C1" s="93">
+      <c r="C1" s="84">
         <f>(C2/18)*100</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93">
+      <c r="D1" s="84"/>
+      <c r="E1" s="84">
         <f t="shared" ref="E1" si="0">(E2/18)*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84">
         <f t="shared" ref="G1" si="1">(G2/18)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93">
+      <c r="H1" s="84"/>
+      <c r="I1" s="84">
         <f t="shared" ref="I1" si="2">(I2/18)*100</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84">
         <f t="shared" ref="K1" si="3">(K2/18)*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93">
+      <c r="L1" s="84"/>
+      <c r="M1" s="84">
         <f t="shared" ref="M1" si="4">(M2/18)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93">
+      <c r="N1" s="84"/>
+      <c r="O1" s="84">
         <f t="shared" ref="O1" si="5">(O2/18)*100</f>
         <v>38.888888888888893</v>
       </c>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93">
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84">
         <f t="shared" ref="Q1" si="6">(Q2/18)*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93">
+      <c r="R1" s="84"/>
+      <c r="S1" s="84">
         <f t="shared" ref="S1" si="7">(S2/18)*100</f>
         <v>50</v>
       </c>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93">
+      <c r="T1" s="84"/>
+      <c r="U1" s="84">
         <f t="shared" ref="U1" si="8">(U2/18)*100</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93">
+      <c r="V1" s="84"/>
+      <c r="W1" s="84">
         <f t="shared" ref="W1" si="9">(W2/18)*100</f>
         <v>61.111111111111114</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93">
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84">
         <f t="shared" ref="Y1" si="10">(Y2/18)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93">
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84">
         <f t="shared" ref="AA1" si="11">(AA2/18)*100</f>
         <v>72.222222222222214</v>
       </c>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84">
         <f t="shared" ref="AC1" si="12">(AC2/18)*100</f>
         <v>77.777777777777786</v>
       </c>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93">
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84">
         <f t="shared" ref="AE1" si="13">(AE2/18)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93">
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84">
         <f t="shared" ref="AG1" si="14">(AG2/18)*100</f>
         <v>88.888888888888886</v>
       </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93">
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84">
         <f t="shared" ref="AI1" si="15">(AI2/18)*100</f>
         <v>94.444444444444443</v>
       </c>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93">
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84">
         <f t="shared" ref="AK1" si="16">(AK2/18)*100</f>
         <v>100</v>
       </c>
-      <c r="AL1" s="93"/>
+      <c r="AL1" s="84"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="C2" s="92">
+      <c r="C2" s="86">
         <v>1</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86">
         <v>2</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91">
+      <c r="F2" s="86"/>
+      <c r="G2" s="85">
         <v>3</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85">
         <v>4</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85">
         <v>5</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91">
+      <c r="L2" s="85"/>
+      <c r="M2" s="85">
         <v>6</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91">
+      <c r="N2" s="85"/>
+      <c r="O2" s="85">
         <v>7</v>
       </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85">
         <v>8</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85">
         <v>9</v>
       </c>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91">
+      <c r="T2" s="85"/>
+      <c r="U2" s="85">
         <v>10</v>
       </c>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91">
+      <c r="V2" s="85"/>
+      <c r="W2" s="85">
         <v>11</v>
       </c>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91">
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85">
         <v>12</v>
       </c>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85">
         <v>13</v>
       </c>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85">
         <v>14</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91">
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85">
         <v>15</v>
       </c>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91">
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85">
         <v>16</v>
       </c>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91">
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85">
         <v>17</v>
       </c>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91">
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85">
         <v>18</v>
       </c>
-      <c r="AL2" s="91"/>
+      <c r="AL2" s="85"/>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2526,362 +2587,362 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="78" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="85"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="78" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78" t="s">
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78" t="s">
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="78"/>
+      <c r="AL5" s="73"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="85"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="70"/>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="85"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="85"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="91" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="88"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="78" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78" t="s">
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78" t="s">
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="70"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="88"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="78" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="78"/>
+      <c r="T11" s="73"/>
       <c r="U11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="V11" s="29"/>
-      <c r="W11" s="78" t="s">
+      <c r="W11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="36" t="s">
@@ -2890,460 +2951,460 @@
       <c r="B12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="78" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="78" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="72"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="85"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="70"/>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="85"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="72"/>
       <c r="L15" s="72"/>
       <c r="M15" s="72"/>
       <c r="N15" s="72"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="85"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="72"/>
       <c r="L16" s="72"/>
       <c r="M16" s="72"/>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
       <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="85"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
     </row>
     <row r="18" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
     </row>
     <row r="19" spans="1:38" ht="8.25" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="79"/>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="85"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="85"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="85"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
       <c r="Y22" s="72"/>
       <c r="Z22" s="72"/>
       <c r="AA22" s="72"/>
       <c r="AB22" s="72"/>
       <c r="AC22" s="72"/>
       <c r="AD22" s="72"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
       <c r="AG22" s="72"/>
       <c r="AH22" s="72"/>
       <c r="AI22" s="72"/>
@@ -3352,194 +3413,194 @@
       <c r="AL22" s="72"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="85"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="70"/>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="85"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="70"/>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="85"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r